--- a/Planner/Planner/App_Data/Blank_2017_Ind_plan.xlsx
+++ b/Planner/Planner/App_Data/Blank_2017_Ind_plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6480" tabRatio="599" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6480" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="ТИТУЛ" sheetId="1" r:id="rId1"/>
@@ -12,19 +17,18 @@
     <sheet name="НАВЧАЛЬНА РОБОТА" sheetId="15" r:id="rId3"/>
     <sheet name="МЕТОД+НАУК+ОРГАН" sheetId="4" r:id="rId4"/>
     <sheet name="ЗМІНИ ТА ВИСНОВКИ" sheetId="11" r:id="rId5"/>
-    <sheet name="СПИСКИ (пароль 123)" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'НАВЧАЛЬНА РОБОТА'!$A$1:$AS$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">РОЗПОДІЛ!$A$1:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ТИТУЛ!$A$1:$G$42</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>ІНДИВІДУАЛЬНИЙ ПЛАН</t>
   </si>
@@ -587,123 +591,6 @@
     <t>Кафедра</t>
   </si>
   <si>
-    <t>Економіки і права</t>
-  </si>
-  <si>
-    <t>Консалтингу і міжнародного бізнесу</t>
-  </si>
-  <si>
-    <t>Фінансовий</t>
-  </si>
-  <si>
-    <t>Менеджменту і маркетингу</t>
-  </si>
-  <si>
-    <t>Економічної інформатики</t>
-  </si>
-  <si>
-    <t>Міжнародних економічних відносин</t>
-  </si>
-  <si>
-    <t>Підготовки іноземних громадян</t>
-  </si>
-  <si>
-    <t>Бухгалтерського обліку</t>
-  </si>
-  <si>
-    <t>Економічного аналізу</t>
-  </si>
-  <si>
-    <t>Контролю і аудиту</t>
-  </si>
-  <si>
-    <t>Економіки та оцінки майна підприємств</t>
-  </si>
-  <si>
-    <t>Вищої математики та економіко-математичних методів</t>
-  </si>
-  <si>
-    <t>Філософії та політології</t>
-  </si>
-  <si>
-    <t>Фінансів</t>
-  </si>
-  <si>
-    <t>Управління фінансовими послугами</t>
-  </si>
-  <si>
-    <t>Банківської справи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оподаткування </t>
-  </si>
-  <si>
-    <t>Менеджменту</t>
-  </si>
-  <si>
-    <t>Економіки організації та планування діяльності підприємства</t>
-  </si>
-  <si>
-    <t>Менеджменту та бізнесу</t>
-  </si>
-  <si>
-    <t>Економіки та маркетингу</t>
-  </si>
-  <si>
-    <t>Інформаційних систем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комп’ютерних систем та технологій </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Економічної кібернетики </t>
-  </si>
-  <si>
-    <t>Статистики та економічного прогнозування</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Інформатики та комп’ютерної техніки </t>
-  </si>
-  <si>
-    <t>Технології, екології та безпеки життєдіяльності</t>
-  </si>
-  <si>
-    <t>Управління персоналом</t>
-  </si>
-  <si>
-    <t>Економіки підприємства і менеджменту</t>
-  </si>
-  <si>
-    <t>Соціології та психології управління</t>
-  </si>
-  <si>
-    <t>Правового регулювання економіки</t>
-  </si>
-  <si>
-    <t>Державного управління, публічного адміністрування та регіональної економіки</t>
-  </si>
-  <si>
-    <t>Управління соціальними комунікаціями</t>
-  </si>
-  <si>
-    <t>Іноземних мов та перекладу</t>
-  </si>
-  <si>
-    <t>Туризму</t>
-  </si>
-  <si>
-    <t>Політичної економії</t>
-  </si>
-  <si>
-    <t>Українознавства і мовної підготовки іноземних громадян</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фізичного виховання та спорту </t>
-  </si>
-  <si>
-    <t>Природничих наук та технології</t>
-  </si>
-  <si>
     <t>2015 / 2016</t>
   </si>
   <si>
@@ -716,45 +603,9 @@
     <t>розрахункових, графіч-них, розрахунково-графічних робіт</t>
   </si>
   <si>
-    <t>ФАКУЛЬТЕТИ</t>
-  </si>
-  <si>
-    <t>Міжнародної економіки та менеджменту зовнішньоекономічної діяльності</t>
-  </si>
-  <si>
-    <t>КАФЕДРИ</t>
-  </si>
-  <si>
-    <t>код</t>
-  </si>
-  <si>
-    <t>ПОСАДИ</t>
-  </si>
-  <si>
-    <t>Професор</t>
-  </si>
-  <si>
-    <t>Доцент</t>
-  </si>
-  <si>
-    <t>Старший викладач</t>
-  </si>
-  <si>
-    <t>Викладач</t>
-  </si>
-  <si>
     <t>Вчене звання</t>
   </si>
   <si>
-    <t>ВЧЕНЕ ЗВАННЯ</t>
-  </si>
-  <si>
-    <t>Внутрішній сумісник</t>
-  </si>
-  <si>
-    <t>Зовнішній сумісник</t>
-  </si>
-  <si>
     <t>2016 / 2017</t>
   </si>
   <si>
@@ -764,171 +615,12 @@
     <t>2018 / 2019</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Вибрати з випадаючого списку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ввести інформацію </t>
-  </si>
-  <si>
-    <t>Вибрати з випадаючого списку, окрім позиції "Науковий ступінь"</t>
-  </si>
-  <si>
-    <t>Ввести інформацію в позицію "Науковий ступінь"</t>
-  </si>
-  <si>
-    <t>Декани</t>
-  </si>
-  <si>
-    <t>Азаренков Г.Ф.</t>
-  </si>
-  <si>
-    <t>Проноза П.В.</t>
-  </si>
-  <si>
-    <t>Тимонін О.М.</t>
-  </si>
-  <si>
-    <t>Коц Г.П.</t>
-  </si>
-  <si>
-    <t>Сєрікова Т.М.</t>
-  </si>
-  <si>
-    <t>Піддубний І.О.</t>
-  </si>
-  <si>
-    <t>Северинов О.В.</t>
-  </si>
-  <si>
-    <t>Завідувачі кафедр</t>
-  </si>
-  <si>
-    <t>Пилипенко А.А.</t>
-  </si>
-  <si>
-    <t>Отенко І.П.</t>
-  </si>
-  <si>
     <t>План розглянуто на засіданні кафедри</t>
   </si>
   <si>
-    <t>Малярець Л.М.</t>
-  </si>
-  <si>
-    <t>Сердюков К.Г.</t>
-  </si>
-  <si>
-    <t>Дікань Л.В.</t>
-  </si>
-  <si>
-    <t>Кузь О.М.</t>
-  </si>
-  <si>
-    <t>Журавльова І.В.</t>
-  </si>
-  <si>
-    <t>Внукова Н.М.</t>
-  </si>
-  <si>
-    <t>Колодізєв О.М.</t>
-  </si>
-  <si>
-    <t>Найденко Є.О.</t>
-  </si>
-  <si>
-    <t>Гриньова В.М.</t>
-  </si>
-  <si>
-    <t>Лепейко Т.І.</t>
-  </si>
-  <si>
-    <t>Ястремська О.М.</t>
-  </si>
-  <si>
-    <t>Орлов П.А.</t>
-  </si>
-  <si>
-    <t>Пушкар О.І.</t>
-  </si>
-  <si>
-    <t>Клебанова Т.С.</t>
-  </si>
-  <si>
-    <t>Раєвнєва О.В.</t>
-  </si>
-  <si>
-    <t>Логвінков С.М.</t>
-  </si>
-  <si>
-    <t>Степанов В.П.</t>
-  </si>
-  <si>
-    <t>Назарова Г.В.</t>
-  </si>
-  <si>
-    <t>Шиян Д.В.</t>
-  </si>
-  <si>
-    <t>Сасіна Л.О.</t>
-  </si>
-  <si>
-    <t>Сергієнко В.В.</t>
-  </si>
-  <si>
-    <t>Гавкалова Н.Л.</t>
-  </si>
-  <si>
-    <t>Педагогіки та іноземної філології</t>
-  </si>
-  <si>
-    <t>Борова Т.А.</t>
-  </si>
-  <si>
-    <t>Яресько К.В.</t>
-  </si>
-  <si>
-    <t>Стахорська С.І.</t>
-  </si>
-  <si>
-    <t>Колбіна Т.В.</t>
-  </si>
-  <si>
-    <t>Попов О.Є.</t>
-  </si>
-  <si>
-    <t>Черемська О.С.</t>
-  </si>
-  <si>
-    <t>Маракушин А.І.</t>
-  </si>
-  <si>
-    <t>Новіков Ф.В.</t>
-  </si>
-  <si>
-    <t>Сущенко О.А.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> - загальна кількость годин</t>
-  </si>
-  <si>
-    <t>внести інформацію</t>
-  </si>
-  <si>
-    <t>Завідувач кафедри</t>
-  </si>
-  <si>
-    <t>Старший науковий співробітник</t>
-  </si>
-  <si>
-    <t>Старший дослідник</t>
-  </si>
-  <si>
     <t>ДЕК</t>
   </si>
   <si>
@@ -936,9 +628,6 @@
   </si>
   <si>
     <t>8.05010101</t>
-  </si>
-  <si>
-    <t>Руденко О.Г.</t>
   </si>
   <si>
     <t xml:space="preserve"> "25" _серпня__ 2016_ р.  Протокол № _1_</t>
@@ -947,8 +636,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="53">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1171,25 +860,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i/>
       <sz val="16"/>
       <name val="Times New Roman"/>
@@ -2102,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2365,18 +2035,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -2387,16 +2045,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2408,20 +2066,20 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2481,10 +2139,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2503,7 +2161,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2512,21 +2170,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2541,18 +2199,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2577,10 +2235,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2683,9 +2341,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2712,16 +2370,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3284,7 +2942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3316,9 +2974,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3350,6 +3009,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3525,17 +3185,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:G24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
@@ -3546,263 +3206,251 @@
     <col min="8" max="8" width="12.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="12.28515625" style="73" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="74" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="110" customWidth="1"/>
-    <col min="13" max="13" width="76" style="110" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="106" customWidth="1"/>
+    <col min="13" max="13" width="76" style="106" customWidth="1"/>
     <col min="14" max="23" width="18.42578125" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+    <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="11"/>
       <c r="I1" s="76"/>
       <c r="J1" s="76"/>
       <c r="K1" s="77"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H2" s="74">
-        <f>VLOOKUP(B9,'СПИСКИ (пароль 123)'!$A$3:$B$9,2,FALSE)</f>
-        <v>401</v>
-      </c>
-      <c r="I2" s="73" t="str">
-        <f>VLOOKUP(H2,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v>Інформаційних систем</v>
+    <row r="2" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="74" t="e">
+        <f>VLOOKUP(B9,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" s="73" t="e">
+        <f>VLOOKUP(H2,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="75">
         <v>1</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-    </row>
-    <row r="3" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H3" s="74">
+        <v>84</v>
+      </c>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+    </row>
+    <row r="3" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="74" t="e">
         <f>H2+1</f>
-        <v>402</v>
-      </c>
-      <c r="I3" s="73" t="str">
-        <f>VLOOKUP(H3,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v xml:space="preserve">Комп’ютерних систем та технологій </v>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="73" t="e">
+        <f>VLOOKUP(H3,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" s="75">
         <v>0.75</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-    </row>
-    <row r="4" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H4" s="74">
+        <v>89</v>
+      </c>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="74" t="e">
         <f t="shared" ref="H4:H8" si="0">H3+1</f>
-        <v>403</v>
-      </c>
-      <c r="I4" s="73" t="str">
-        <f>VLOOKUP(H4,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v xml:space="preserve">Економічної кібернетики </v>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" s="73" t="e">
+        <f>VLOOKUP(H4,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J4" s="75">
         <v>0.5</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-    </row>
-    <row r="5" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H5" s="74">
+        <v>90</v>
+      </c>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="74" t="e">
         <f t="shared" si="0"/>
-        <v>404</v>
-      </c>
-      <c r="I5" s="73" t="str">
-        <f>VLOOKUP(H5,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v>Статистики та економічного прогнозування</v>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="73" t="e">
+        <f>VLOOKUP(H5,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="J5" s="75">
         <v>0.25</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-    </row>
-    <row r="6" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H6" s="74">
+        <v>91</v>
+      </c>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+    </row>
+    <row r="6" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="74" t="e">
         <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="I6" s="73" t="str">
-        <f>VLOOKUP(H6,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v xml:space="preserve">Інформатики та комп’ютерної техніки </v>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="73" t="e">
+        <f>VLOOKUP(H6,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="74"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-    </row>
-    <row r="7" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H7" s="74">
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+    </row>
+    <row r="7" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="74" t="e">
         <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-      <c r="I7" s="73" t="str">
-        <f>VLOOKUP(H7,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v>Технології, екології та безпеки життєдіяльності</v>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="73" t="e">
+        <f>VLOOKUP(H7,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="74"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-    </row>
-    <row r="8" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1">
-      <c r="H8" s="74">
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+    </row>
+    <row r="8" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="74" t="e">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>#REF!</v>
       </c>
       <c r="I8" s="73" t="e">
-        <f>VLOOKUP(H8,'СПИСКИ (пароль 123)'!$D$3:$E$36,2,FALSE)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP(H8,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="74"/>
-      <c r="L8" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="146" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20.25">
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="96"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="146"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="92"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="142"/>
       <c r="N9" s="75"/>
     </row>
-    <row r="10" spans="1:14" ht="5.25" customHeight="1">
+    <row r="10" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="97"/>
-      <c r="M10" s="109"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="93"/>
+      <c r="M10" s="105"/>
       <c r="N10" s="75"/>
     </row>
-    <row r="11" spans="1:14" ht="6.75" customHeight="1">
-      <c r="A11" s="153" t="s">
+    <row r="11" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="95"/>
-      <c r="M11" s="109"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="91"/>
+      <c r="M11" s="105"/>
       <c r="N11" s="75"/>
     </row>
-    <row r="12" spans="1:14" ht="42.75" customHeight="1">
-      <c r="A12" s="153"/>
-      <c r="B12" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="95"/>
-      <c r="L12" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="146" t="s">
-        <v>144</v>
-      </c>
+    <row r="12" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="149"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="91"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="142"/>
       <c r="N12" s="75"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="L13" s="147"/>
-      <c r="M13" s="146"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="143"/>
+      <c r="M13" s="142"/>
       <c r="N13" s="75"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="M14" s="109"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="105"/>
       <c r="N14" s="75"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="M15" s="109"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="105"/>
       <c r="N15" s="75"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="M16" s="109"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="105"/>
       <c r="N16" s="75"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="M17" s="109"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="105"/>
       <c r="N17" s="75"/>
     </row>
-    <row r="18" spans="1:14" ht="62.25" customHeight="1">
-      <c r="M18" s="109"/>
+    <row r="18" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="105"/>
       <c r="N18" s="75"/>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" ht="30.75">
-      <c r="A19" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
       <c r="K19" s="78"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="109"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="75"/>
     </row>
-    <row r="20" spans="1:14" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="151" t="s">
+    <row r="20" spans="1:14" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
       <c r="K20" s="79"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="109"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="75"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3810,10 +3458,10 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="M21" s="109"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="75"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1">
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3821,10 +3469,10 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="M22" s="109"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="75"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3832,40 +3480,36 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="M23" s="109"/>
+      <c r="M23" s="105"/>
       <c r="N23" s="75"/>
     </row>
-    <row r="24" spans="1:14" ht="25.5">
-      <c r="A24" s="152"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="L24" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="146" t="s">
-        <v>145</v>
-      </c>
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="142"/>
       <c r="N24" s="75"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="148" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="146"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="142"/>
       <c r="N25" s="75"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -3873,10 +3517,10 @@
       <c r="E26" s="19"/>
       <c r="F26" s="71"/>
       <c r="G26" s="19"/>
-      <c r="M26" s="109"/>
+      <c r="M26" s="105"/>
       <c r="N26" s="75"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3884,10 +3528,10 @@
       <c r="E27" s="19"/>
       <c r="F27" s="71"/>
       <c r="G27" s="19"/>
-      <c r="M27" s="109"/>
+      <c r="M27" s="105"/>
       <c r="N27" s="75"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -3895,10 +3539,10 @@
       <c r="E28" s="19"/>
       <c r="F28" s="71"/>
       <c r="G28" s="19"/>
-      <c r="M28" s="109"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="75"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3906,10 +3550,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="70"/>
       <c r="G29" s="8"/>
-      <c r="M29" s="109"/>
+      <c r="M29" s="105"/>
       <c r="N29" s="75"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3917,10 +3561,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="70"/>
       <c r="G30" s="8"/>
-      <c r="M30" s="109"/>
+      <c r="M30" s="105"/>
       <c r="N30" s="75"/>
     </row>
-    <row r="31" spans="1:14" ht="24.75" customHeight="1">
+    <row r="31" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3928,14 +3572,14 @@
       <c r="E31" s="8"/>
       <c r="F31" s="70"/>
       <c r="G31" s="8"/>
-      <c r="M31" s="109"/>
+      <c r="M31" s="105"/>
       <c r="N31" s="75"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="M32" s="109"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="105"/>
       <c r="N32" s="75"/>
     </row>
-    <row r="33" spans="1:14" ht="48.75" customHeight="1">
+    <row r="33" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>7</v>
       </c>
@@ -3946,47 +3590,40 @@
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="141" t="s">
+      <c r="F33" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="142"/>
-      <c r="M33" s="109"/>
+      <c r="G33" s="138"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="75"/>
     </row>
-    <row r="34" spans="1:14" ht="51.75" customHeight="1">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="144"/>
-      <c r="L34" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="L35" s="147"/>
-      <c r="M35" s="146"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="M36" s="140" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="M37" s="140"/>
+    <row r="34" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="140"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="142"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L35" s="143"/>
+      <c r="M35" s="142"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M36" s="136"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M37" s="136"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="19">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A19:G19"/>
@@ -4009,69 +3646,30 @@
     <mergeCell ref="A25:G25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:G11">
       <formula1>$I$2:$I$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34">
-      <formula1>$J$1:$J$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:F12">
-      <formula1>$I$1:$I$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34">
-      <formula1>$K$1:$K$5</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'СПИСКИ (пароль 123)'!$G$2:$G$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'СПИСКИ (пароль 123)'!$H$2:$H$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'СПИСКИ (пароль 123)'!$I$2:$I$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F34:G34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'СПИСКИ (пароль 123)'!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9:F9</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
@@ -4083,107 +3681,105 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1">
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="154"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1">
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="106">
+    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="102">
         <f>ТИТУЛ!E34*1548</f>
         <v>0</v>
       </c>
-      <c r="G2" s="107" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="66" customHeight="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-    </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="162"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="4" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="152"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="158"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="162"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.25">
-      <c r="A11" s="151" t="s">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="152"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="158"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1">
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" thickTop="1">
-      <c r="A13" s="166" t="s">
+    <row r="13" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="168"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="169" t="s">
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="164"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="34" t="s">
         <v>53</v>
       </c>
@@ -4191,12 +3787,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="172" t="s">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="41">
         <f>'НАВЧАЛЬНА РОБОТА'!AR55</f>
         <v>0</v>
@@ -4206,12 +3802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="172" t="s">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="41">
         <f>'МЕТОД+НАУК+ОРГАН'!E13</f>
         <v>0</v>
@@ -4221,12 +3817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="172" t="s">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
       <c r="D17" s="41">
         <f>'МЕТОД+НАУК+ОРГАН'!E27</f>
         <v>0</v>
@@ -4236,12 +3832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="174" t="s">
+    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
       <c r="D18" s="43">
         <f>'МЕТОД+НАУК+ОРГАН'!E41</f>
         <v>0</v>
@@ -4251,12 +3847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A19" s="176" t="s">
+    <row r="19" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="45">
         <f>D15+D16+D17+D18</f>
         <v>0</v>
@@ -4265,122 +3861,118 @@
         <f>E15+E16+E17+E18</f>
         <v>0</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="102">
         <f>F2-D19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="103">
         <f>IF(F19=0,0,"- відхілення від норматива")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" thickTop="1"/>
-    <row r="21" spans="1:7" ht="24.75" customHeight="1"/>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A22" s="150"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-    </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="179" t="str">
+    <row r="20" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="175" t="str">
         <f>CONCATENATE("Індивідуальний план склав _______________________ / ",ТИТУЛ!A24," /")</f>
         <v>Індивідуальний план склав _______________________ /  /</v>
       </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-    </row>
-    <row r="24" spans="1:7" ht="41.25" customHeight="1">
+      <c r="B23" s="175"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+    </row>
+    <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="163" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="153"/>
+      <c r="C25" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="159"/>
+      <c r="G25" s="160"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="164"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="165"/>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F26" s="159"/>
+      <c r="G26" s="160"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="161"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="44.25" customHeight="1">
+    <row r="35" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4388,7 +3980,6 @@
       <c r="E36" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="21">
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
@@ -4425,20 +4016,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AU60"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="87" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -4460,168 +4051,168 @@
     <col min="48" max="48" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="18.75" thickBot="1">
+    <row r="1" spans="1:45" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:45" ht="36" customHeight="1" thickBot="1">
-      <c r="A2" s="237" t="s">
+    <row r="2" spans="1:45" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="233" t="s">
+      <c r="E2" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="229" t="s">
+      <c r="F2" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="229" t="s">
+      <c r="G2" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="202" t="s">
+      <c r="H2" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="226"/>
-      <c r="J2" s="202" t="s">
+      <c r="I2" s="222"/>
+      <c r="J2" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="223"/>
-      <c r="L2" s="202" t="s">
+      <c r="K2" s="219"/>
+      <c r="L2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="202" t="s">
+      <c r="M2" s="219"/>
+      <c r="N2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="223"/>
-      <c r="P2" s="202" t="s">
+      <c r="O2" s="219"/>
+      <c r="P2" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="202" t="s">
+      <c r="Q2" s="219"/>
+      <c r="R2" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="223"/>
-      <c r="T2" s="202" t="s">
+      <c r="S2" s="219"/>
+      <c r="T2" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="223"/>
-      <c r="V2" s="206" t="s">
-        <v>124</v>
-      </c>
-      <c r="W2" s="214"/>
-      <c r="X2" s="206" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="217" t="s">
+      <c r="U2" s="219"/>
+      <c r="V2" s="202" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="210"/>
+      <c r="X2" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="213" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="202" t="s">
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="203"/>
-      <c r="AH2" s="202" t="s">
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="203"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AI2" s="199"/>
+      <c r="AJ2" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="203"/>
-      <c r="AL2" s="202" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="203"/>
-      <c r="AN2" s="202" t="s">
+      <c r="AM2" s="199"/>
+      <c r="AN2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="206" t="s">
+      <c r="AO2" s="199"/>
+      <c r="AP2" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="210" t="s">
+      <c r="AQ2" s="203"/>
+      <c r="AR2" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="211"/>
-    </row>
-    <row r="3" spans="1:45" ht="119.25" customHeight="1" thickBot="1">
-      <c r="A3" s="238"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225"/>
-      <c r="N3" s="224"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="224"/>
-      <c r="Q3" s="225"/>
-      <c r="R3" s="224"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="220" t="s">
+      <c r="AS2" s="207"/>
+    </row>
+    <row r="3" spans="1:45" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="234"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="220"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="220" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="220" t="s">
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="216" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="217"/>
+      <c r="AD3" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="205"/>
-      <c r="AJ3" s="204"/>
-      <c r="AK3" s="205"/>
-      <c r="AL3" s="204"/>
-      <c r="AM3" s="205"/>
-      <c r="AN3" s="204"/>
-      <c r="AO3" s="205"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="212"/>
-      <c r="AS3" s="213"/>
-    </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="239"/>
-      <c r="B4" s="230"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
+      <c r="AE3" s="218"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
+      <c r="AJ3" s="200"/>
+      <c r="AK3" s="201"/>
+      <c r="AL3" s="200"/>
+      <c r="AM3" s="201"/>
+      <c r="AN3" s="200"/>
+      <c r="AO3" s="201"/>
+      <c r="AP3" s="204"/>
+      <c r="AQ3" s="205"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="209"/>
+    </row>
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="235"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
       <c r="H4" s="21" t="s">
         <v>36</v>
       </c>
@@ -4730,26 +4321,26 @@
       <c r="AQ4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AR4" s="126" t="s">
+      <c r="AR4" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="AS4" s="127" t="s">
+      <c r="AS4" s="123" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="18" customHeight="1">
-      <c r="A5" s="180" t="s">
+    <row r="5" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="176" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="135" t="s">
-        <v>199</v>
+      <c r="C5" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="85"/>
@@ -4798,8 +4389,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="18" customHeight="1">
-      <c r="A6" s="181"/>
+    <row r="6" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="177"/>
       <c r="B6" s="52"/>
       <c r="C6" s="83"/>
       <c r="D6" s="52"/>
@@ -4851,8 +4442,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="18" customHeight="1">
-      <c r="A7" s="181"/>
+    <row r="7" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="177"/>
       <c r="B7" s="52"/>
       <c r="C7" s="83"/>
       <c r="D7" s="52"/>
@@ -4904,8 +4495,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="18" customHeight="1">
-      <c r="A8" s="181"/>
+    <row r="8" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="177"/>
       <c r="B8" s="52"/>
       <c r="C8" s="83"/>
       <c r="D8" s="52"/>
@@ -4957,8 +4548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="18" customHeight="1">
-      <c r="A9" s="181"/>
+    <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="177"/>
       <c r="B9" s="52"/>
       <c r="C9" s="83"/>
       <c r="D9" s="52"/>
@@ -5010,8 +4601,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="18" customHeight="1">
-      <c r="A10" s="181"/>
+    <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="177"/>
       <c r="B10" s="52"/>
       <c r="C10" s="83"/>
       <c r="D10" s="52"/>
@@ -5063,8 +4654,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="18" customHeight="1">
-      <c r="A11" s="181"/>
+    <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="177"/>
       <c r="B11" s="52"/>
       <c r="C11" s="83"/>
       <c r="D11" s="52"/>
@@ -5116,8 +4707,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="18" customHeight="1">
-      <c r="A12" s="181"/>
+    <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="177"/>
       <c r="B12" s="52"/>
       <c r="C12" s="83"/>
       <c r="D12" s="52"/>
@@ -5169,8 +4760,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="18" customHeight="1">
-      <c r="A13" s="181"/>
+    <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="177"/>
       <c r="B13" s="52"/>
       <c r="C13" s="83"/>
       <c r="D13" s="52"/>
@@ -5222,8 +4813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="181"/>
+    <row r="14" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="177"/>
       <c r="B14" s="54"/>
       <c r="C14" s="84"/>
       <c r="D14" s="54"/>
@@ -5275,171 +4866,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="182"/>
-      <c r="B15" s="194" t="s">
+    <row r="15" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="178"/>
+      <c r="B15" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="116">
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="112">
         <f t="shared" ref="H15:AQ15" si="3">SUM(H5:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="116">
+      <c r="J15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="116">
+      <c r="L15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="116">
+      <c r="N15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="116">
+      <c r="P15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="117">
+      <c r="Q15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="116">
+      <c r="R15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="117">
+      <c r="S15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="116">
+      <c r="T15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="117">
+      <c r="U15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="116">
+      <c r="V15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W15" s="117">
+      <c r="W15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X15" s="116">
+      <c r="X15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="117">
+      <c r="Y15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="116">
+      <c r="Z15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="117">
+      <c r="AA15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="116">
+      <c r="AB15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="117">
+      <c r="AC15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="116">
+      <c r="AD15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="117">
+      <c r="AE15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="116">
+      <c r="AF15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="117">
+      <c r="AG15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="116">
+      <c r="AH15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="117">
+      <c r="AI15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="116">
+      <c r="AJ15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="117">
+      <c r="AK15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="116">
+      <c r="AL15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="117">
+      <c r="AM15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="116">
+      <c r="AN15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="117">
+      <c r="AO15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="116">
+      <c r="AP15" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="117">
+      <c r="AQ15" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="116">
+      <c r="AR15" s="112">
         <f t="shared" ref="AR15:AS17" si="4">H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15+AF15+AH15+AJ15+AL15+AN15+AP15</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="117">
+      <c r="AS15" s="113">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="18" customHeight="1">
-      <c r="A16" s="235" t="s">
+    <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="231" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="56"/>
@@ -5493,8 +5084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="18" customHeight="1">
-      <c r="A17" s="236"/>
+    <row r="17" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="232"/>
       <c r="B17" s="52"/>
       <c r="C17" s="83"/>
       <c r="D17" s="52"/>
@@ -5546,8 +5137,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="18" customHeight="1">
-      <c r="A18" s="236"/>
+    <row r="18" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="232"/>
       <c r="B18" s="52"/>
       <c r="C18" s="83"/>
       <c r="D18" s="52"/>
@@ -5599,8 +5190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="18" customHeight="1">
-      <c r="A19" s="236"/>
+    <row r="19" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="232"/>
       <c r="B19" s="52"/>
       <c r="C19" s="83"/>
       <c r="D19" s="52"/>
@@ -5652,8 +5243,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="236"/>
+    <row r="20" spans="1:45" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="232"/>
       <c r="B20" s="52"/>
       <c r="C20" s="83"/>
       <c r="D20" s="52"/>
@@ -5705,8 +5296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="18" customHeight="1">
-      <c r="A21" s="236"/>
+    <row r="21" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="232"/>
       <c r="B21" s="52"/>
       <c r="C21" s="83"/>
       <c r="D21" s="52"/>
@@ -5758,8 +5349,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="18" customHeight="1">
-      <c r="A22" s="236"/>
+    <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="232"/>
       <c r="B22" s="52"/>
       <c r="C22" s="83"/>
       <c r="D22" s="52"/>
@@ -5811,8 +5402,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="18" customHeight="1">
-      <c r="A23" s="236"/>
+    <row r="23" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="232"/>
       <c r="B23" s="52"/>
       <c r="C23" s="83"/>
       <c r="D23" s="52"/>
@@ -5864,8 +5455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="18" customHeight="1">
-      <c r="A24" s="236"/>
+    <row r="24" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="232"/>
       <c r="B24" s="52"/>
       <c r="C24" s="83"/>
       <c r="D24" s="52"/>
@@ -5917,8 +5508,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="236"/>
+    <row r="25" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="232"/>
       <c r="B25" s="54"/>
       <c r="C25" s="84"/>
       <c r="D25" s="54"/>
@@ -5970,340 +5561,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="236"/>
-      <c r="B26" s="240" t="s">
+    <row r="26" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="232"/>
+      <c r="B26" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="241"/>
-      <c r="F26" s="241"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="116">
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
+      <c r="E26" s="237"/>
+      <c r="F26" s="237"/>
+      <c r="G26" s="238"/>
+      <c r="H26" s="112">
         <f t="shared" ref="H26:AQ26" si="9">SUM(H16:H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="117">
+      <c r="I26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J26" s="116">
+      <c r="J26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="117">
+      <c r="K26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L26" s="116">
+      <c r="L26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M26" s="117">
+      <c r="M26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O26" s="117">
+      <c r="O26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P26" s="116">
+      <c r="P26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="117">
+      <c r="Q26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R26" s="116">
+      <c r="R26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S26" s="117">
+      <c r="S26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T26" s="116">
+      <c r="T26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U26" s="117">
+      <c r="U26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V26" s="116">
+      <c r="V26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W26" s="117">
+      <c r="W26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X26" s="116">
+      <c r="X26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="117">
+      <c r="Y26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="116">
+      <c r="Z26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="117">
+      <c r="AA26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="116">
+      <c r="AB26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="117">
+      <c r="AC26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="116">
+      <c r="AD26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="117">
+      <c r="AE26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="116">
+      <c r="AF26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="117">
+      <c r="AG26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="116">
+      <c r="AH26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="117">
+      <c r="AI26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="116">
+      <c r="AJ26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="117">
+      <c r="AK26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="116">
+      <c r="AL26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM26" s="117">
+      <c r="AM26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="116">
+      <c r="AN26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="117">
+      <c r="AO26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="116">
+      <c r="AP26" s="112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="117">
+      <c r="AQ26" s="113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="116">
+      <c r="AR26" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="117">
+      <c r="AS26" s="113">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="124" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="183" t="s">
+    <row r="27" spans="1:45" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="114">
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="110">
         <f t="shared" ref="H27:AQ27" si="10">H15+H26</f>
         <v>0</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="114">
+      <c r="J27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="115">
+      <c r="K27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="114">
+      <c r="L27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="115">
+      <c r="M27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N27" s="114">
+      <c r="N27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O27" s="115">
+      <c r="O27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P27" s="114">
+      <c r="P27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R27" s="114">
+      <c r="R27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S27" s="115">
+      <c r="S27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T27" s="114">
+      <c r="T27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U27" s="115">
+      <c r="U27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V27" s="114">
+      <c r="V27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W27" s="115">
+      <c r="W27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X27" s="114">
+      <c r="X27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="115">
+      <c r="Y27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="114">
+      <c r="Z27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="115">
+      <c r="AA27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="114">
+      <c r="AB27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="115">
+      <c r="AC27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="114">
+      <c r="AD27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="115">
+      <c r="AE27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="114">
+      <c r="AF27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="115">
+      <c r="AG27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH27" s="114">
+      <c r="AH27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="115">
+      <c r="AI27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ27" s="114">
+      <c r="AJ27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="115">
+      <c r="AK27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="114">
+      <c r="AL27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM27" s="115">
+      <c r="AM27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="114">
+      <c r="AN27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="115">
+      <c r="AO27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="114">
+      <c r="AP27" s="110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ27" s="115">
+      <c r="AQ27" s="111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AR27" s="114">
+      <c r="AR27" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="115">
+      <c r="AS27" s="111">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="18" customHeight="1">
-      <c r="A28" s="180" t="s">
+    <row r="28" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="176" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
       <c r="H28" s="51"/>
@@ -6351,12 +5942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="18" customHeight="1">
-      <c r="A29" s="181"/>
+    <row r="29" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="177"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
       <c r="H29" s="87"/>
@@ -6404,12 +5995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="18" customHeight="1">
-      <c r="A30" s="181"/>
+    <row r="30" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="177"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="87"/>
@@ -6457,12 +6048,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="18" customHeight="1">
-      <c r="A31" s="181"/>
+    <row r="31" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="177"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="87"/>
@@ -6510,12 +6101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="18" customHeight="1">
-      <c r="A32" s="181"/>
+    <row r="32" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="177"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="87"/>
@@ -6563,12 +6154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="18" customHeight="1">
-      <c r="A33" s="181"/>
+    <row r="33" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="177"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="87"/>
@@ -6616,12 +6207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="18" customHeight="1">
-      <c r="A34" s="181"/>
+    <row r="34" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="177"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
       <c r="F34" s="56"/>
       <c r="G34" s="56"/>
       <c r="H34" s="87"/>
@@ -6669,8 +6260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="18" customHeight="1">
-      <c r="A35" s="181"/>
+    <row r="35" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="177"/>
       <c r="B35" s="56"/>
       <c r="C35" s="83"/>
       <c r="D35" s="56"/>
@@ -6722,8 +6313,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="18" customHeight="1">
-      <c r="A36" s="181"/>
+    <row r="36" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="177"/>
       <c r="B36" s="56"/>
       <c r="C36" s="83"/>
       <c r="D36" s="56"/>
@@ -6775,14 +6366,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="181"/>
-      <c r="B37" s="104"/>
+    <row r="37" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="177"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="84"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
       <c r="H37" s="89"/>
       <c r="I37" s="90"/>
       <c r="J37" s="89"/>
@@ -6828,176 +6419,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="182"/>
-      <c r="B38" s="194" t="s">
+    <row r="38" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="178"/>
+      <c r="B38" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="116">
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="112">
         <f t="shared" ref="H38:AQ38" si="14">SUM(H28:H37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="117">
+      <c r="I38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J38" s="116">
+      <c r="J38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K38" s="117">
+      <c r="K38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L38" s="116">
+      <c r="L38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M38" s="117">
+      <c r="M38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N38" s="116">
+      <c r="N38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O38" s="117">
+      <c r="O38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P38" s="116">
+      <c r="P38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="117">
+      <c r="Q38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R38" s="116">
+      <c r="R38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S38" s="117">
+      <c r="S38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T38" s="116">
+      <c r="T38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U38" s="117">
+      <c r="U38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V38" s="116">
+      <c r="V38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W38" s="117">
+      <c r="W38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X38" s="116">
+      <c r="X38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="117">
+      <c r="Y38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="116">
+      <c r="Z38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="117">
+      <c r="AA38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="116">
+      <c r="AB38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="117">
+      <c r="AC38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="116">
+      <c r="AD38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="117">
+      <c r="AE38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="116">
+      <c r="AF38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="117">
+      <c r="AG38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="116">
+      <c r="AH38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="117">
+      <c r="AI38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="116">
+      <c r="AJ38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="117">
+      <c r="AK38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="116">
+      <c r="AL38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="117">
+      <c r="AM38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="116">
+      <c r="AN38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="117">
+      <c r="AO38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AP38" s="116">
+      <c r="AP38" s="112">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="117">
+      <c r="AQ38" s="113">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AR38" s="116">
+      <c r="AR38" s="112">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS38" s="117">
+      <c r="AS38" s="113">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="18" customHeight="1">
-      <c r="A39" s="191" t="s">
+    <row r="39" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="187" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="82" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
@@ -7039,17 +6630,17 @@
       <c r="AO39" s="86"/>
       <c r="AP39" s="51"/>
       <c r="AQ39" s="86"/>
-      <c r="AR39" s="128">
+      <c r="AR39" s="124">
         <f t="shared" ref="AR39:AS41" si="15">H39+J39+L39+N39+P39+R39+T39+V39+X39+Z39+AB39+AD39+AF39+AH39+AJ39+AL39+AN39+AP39</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="129">
+      <c r="AS39" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="18" customHeight="1">
-      <c r="A40" s="192"/>
+    <row r="40" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="188"/>
       <c r="B40" s="52"/>
       <c r="C40" s="83"/>
       <c r="D40" s="52"/>
@@ -7092,17 +6683,17 @@
       <c r="AO40" s="88"/>
       <c r="AP40" s="87"/>
       <c r="AQ40" s="88"/>
-      <c r="AR40" s="130">
+      <c r="AR40" s="126">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="131">
+      <c r="AS40" s="127">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="18" customHeight="1">
-      <c r="A41" s="192"/>
+    <row r="41" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="188"/>
       <c r="B41" s="52"/>
       <c r="C41" s="83"/>
       <c r="D41" s="52"/>
@@ -7145,17 +6736,17 @@
       <c r="AO41" s="88"/>
       <c r="AP41" s="87"/>
       <c r="AQ41" s="88"/>
-      <c r="AR41" s="130">
+      <c r="AR41" s="126">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS41" s="131">
+      <c r="AS41" s="127">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="18" customHeight="1">
-      <c r="A42" s="192"/>
+    <row r="42" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="188"/>
       <c r="B42" s="52"/>
       <c r="C42" s="83"/>
       <c r="D42" s="52"/>
@@ -7198,17 +6789,17 @@
       <c r="AO42" s="88"/>
       <c r="AP42" s="87"/>
       <c r="AQ42" s="88"/>
-      <c r="AR42" s="130">
+      <c r="AR42" s="126">
         <f t="shared" ref="AR42:AR48" si="16">H42+J42+L42+N42+P42+R42+T42+V42+X42+Z42+AB42+AD42+AF42+AH42+AJ42+AL42+AN42+AP42</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="131">
+      <c r="AS42" s="127">
         <f t="shared" ref="AS42:AS48" si="17">I42+K42+M42+O42+Q42+S42+U42+W42+Y42+AA42+AC42+AE42+AG42+AI42+AK42+AM42+AO42+AQ42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="18" customHeight="1">
-      <c r="A43" s="192"/>
+    <row r="43" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="188"/>
       <c r="B43" s="52"/>
       <c r="C43" s="83"/>
       <c r="D43" s="52"/>
@@ -7251,17 +6842,17 @@
       <c r="AO43" s="88"/>
       <c r="AP43" s="87"/>
       <c r="AQ43" s="88"/>
-      <c r="AR43" s="130">
+      <c r="AR43" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS43" s="131">
+      <c r="AS43" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="18" customHeight="1">
-      <c r="A44" s="192"/>
+    <row r="44" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="188"/>
       <c r="B44" s="52"/>
       <c r="C44" s="83"/>
       <c r="D44" s="52"/>
@@ -7304,17 +6895,17 @@
       <c r="AO44" s="88"/>
       <c r="AP44" s="87"/>
       <c r="AQ44" s="88"/>
-      <c r="AR44" s="130">
+      <c r="AR44" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS44" s="131">
+      <c r="AS44" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="18" customHeight="1">
-      <c r="A45" s="192"/>
+    <row r="45" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="188"/>
       <c r="B45" s="52"/>
       <c r="C45" s="83"/>
       <c r="D45" s="52"/>
@@ -7357,17 +6948,17 @@
       <c r="AO45" s="88"/>
       <c r="AP45" s="87"/>
       <c r="AQ45" s="88"/>
-      <c r="AR45" s="130">
+      <c r="AR45" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS45" s="131">
+      <c r="AS45" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="18" customHeight="1">
-      <c r="A46" s="192"/>
+    <row r="46" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="188"/>
       <c r="B46" s="52"/>
       <c r="C46" s="83"/>
       <c r="D46" s="52"/>
@@ -7410,17 +7001,17 @@
       <c r="AO46" s="88"/>
       <c r="AP46" s="87"/>
       <c r="AQ46" s="88"/>
-      <c r="AR46" s="130">
+      <c r="AR46" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS46" s="131">
+      <c r="AS46" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="18" customHeight="1">
-      <c r="A47" s="192"/>
+    <row r="47" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="188"/>
       <c r="B47" s="52"/>
       <c r="C47" s="83"/>
       <c r="D47" s="52"/>
@@ -7463,17 +7054,17 @@
       <c r="AO47" s="88"/>
       <c r="AP47" s="87"/>
       <c r="AQ47" s="88"/>
-      <c r="AR47" s="130">
+      <c r="AR47" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS47" s="131">
+      <c r="AS47" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="192"/>
+    <row r="48" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="188"/>
       <c r="B48" s="54"/>
       <c r="C48" s="84"/>
       <c r="D48" s="54"/>
@@ -7516,925 +7107,925 @@
       <c r="AO48" s="90"/>
       <c r="AP48" s="89"/>
       <c r="AQ48" s="90"/>
-      <c r="AR48" s="132">
+      <c r="AR48" s="128">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS48" s="133">
+      <c r="AS48" s="129">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="18" customHeight="1" thickBot="1">
-      <c r="A49" s="193"/>
-      <c r="B49" s="194" t="s">
+    <row r="49" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="189"/>
+      <c r="B49" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="195"/>
-      <c r="D49" s="195"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="116">
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="192"/>
+      <c r="H49" s="112">
         <f t="shared" ref="H49:AQ49" si="18">SUM(H39:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="117">
+      <c r="I49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J49" s="116">
+      <c r="J49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K49" s="117">
+      <c r="K49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L49" s="116">
+      <c r="L49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M49" s="117">
+      <c r="M49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N49" s="116">
+      <c r="N49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O49" s="117">
+      <c r="O49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P49" s="116">
+      <c r="P49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="117">
+      <c r="Q49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R49" s="116">
+      <c r="R49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S49" s="117">
+      <c r="S49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T49" s="116">
+      <c r="T49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U49" s="117">
+      <c r="U49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V49" s="116">
+      <c r="V49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W49" s="117">
+      <c r="W49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X49" s="116">
+      <c r="X49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="117">
+      <c r="Y49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="116">
+      <c r="Z49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="117">
+      <c r="AA49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="116">
+      <c r="AB49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="117">
+      <c r="AC49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="116">
+      <c r="AD49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="117">
+      <c r="AE49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF49" s="116">
+      <c r="AF49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG49" s="117">
+      <c r="AG49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AH49" s="116">
+      <c r="AH49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="117">
+      <c r="AI49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AJ49" s="116">
+      <c r="AJ49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AK49" s="117">
+      <c r="AK49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AL49" s="116">
+      <c r="AL49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM49" s="117">
+      <c r="AM49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AN49" s="116">
+      <c r="AN49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO49" s="117">
+      <c r="AO49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP49" s="116">
+      <c r="AP49" s="112">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ49" s="117">
+      <c r="AQ49" s="113">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AR49" s="116">
+      <c r="AR49" s="112">
         <f>H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49+AF49+AH49+AJ49+AL49+AN49+AP49</f>
         <v>0</v>
       </c>
-      <c r="AS49" s="117">
+      <c r="AS49" s="113">
         <f>I49+K49+M49+O49+Q49+S49+U49+W49+Y49+AA49+AC49+AE49+AG49+AI49+AK49+AM49+AO49+AQ49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" s="125" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A50" s="183" t="s">
+    <row r="50" spans="1:47" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="114">
+      <c r="B50" s="180"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="110">
         <f t="shared" ref="H50:AQ50" si="19">H38+H49</f>
         <v>0</v>
       </c>
-      <c r="I50" s="115">
+      <c r="I50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J50" s="114">
+      <c r="J50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K50" s="115">
+      <c r="K50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L50" s="114">
+      <c r="L50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M50" s="115">
+      <c r="M50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N50" s="114">
+      <c r="N50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O50" s="115">
+      <c r="O50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P50" s="114">
+      <c r="P50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="115">
+      <c r="Q50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R50" s="114">
+      <c r="R50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S50" s="115">
+      <c r="S50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T50" s="114">
+      <c r="T50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U50" s="115">
+      <c r="U50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V50" s="114">
+      <c r="V50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W50" s="115">
+      <c r="W50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X50" s="114">
+      <c r="X50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="115">
+      <c r="Y50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="114">
+      <c r="Z50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="115">
+      <c r="AA50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="114">
+      <c r="AB50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="115">
+      <c r="AC50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="114">
+      <c r="AD50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="115">
+      <c r="AE50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="114">
+      <c r="AF50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AG50" s="115">
+      <c r="AG50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AH50" s="114">
+      <c r="AH50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="115">
+      <c r="AI50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AJ50" s="114">
+      <c r="AJ50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="115">
+      <c r="AK50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="114">
+      <c r="AL50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AM50" s="115">
+      <c r="AM50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="114">
+      <c r="AN50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="115">
+      <c r="AO50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AP50" s="114">
+      <c r="AP50" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ50" s="115">
+      <c r="AQ50" s="111">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AR50" s="114">
+      <c r="AR50" s="110">
         <f>H50+J50+L50+N50+P50+R50+T50+V50+X50+Z50+AB50+AD50+AF50+AH50+AJ50+AL50+AN50+AP50</f>
         <v>0</v>
       </c>
-      <c r="AS50" s="115">
+      <c r="AS50" s="111">
         <f>I50+K50+M50+O50+Q50+S50+U50+W50+Y50+AA50+AC50+AE50+AG50+AI50+AK50+AM50+AO50+AQ50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A51" s="186"/>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="186"/>
-      <c r="L51" s="186"/>
-      <c r="M51" s="186"/>
-      <c r="N51" s="186"/>
-      <c r="O51" s="186"/>
-      <c r="P51" s="186"/>
-      <c r="Q51" s="186"/>
-      <c r="R51" s="186"/>
-      <c r="S51" s="186"/>
-      <c r="T51" s="197"/>
-      <c r="U51" s="198"/>
-      <c r="V51" s="198"/>
-      <c r="W51" s="198"/>
-      <c r="X51" s="198"/>
-      <c r="Y51" s="198"/>
-      <c r="Z51" s="198"/>
-      <c r="AA51" s="198"/>
-      <c r="AB51" s="198"/>
-      <c r="AC51" s="198"/>
-      <c r="AD51" s="198"/>
-      <c r="AE51" s="198"/>
-      <c r="AF51" s="198"/>
-      <c r="AG51" s="198"/>
-      <c r="AH51" s="198"/>
-      <c r="AI51" s="198"/>
-      <c r="AJ51" s="198"/>
-      <c r="AK51" s="198"/>
-      <c r="AL51" s="198"/>
-      <c r="AM51" s="198"/>
-      <c r="AN51" s="198"/>
-      <c r="AO51" s="198"/>
-      <c r="AP51" s="198"/>
-      <c r="AQ51" s="198"/>
-      <c r="AR51" s="198"/>
-      <c r="AS51" s="198"/>
-    </row>
-    <row r="52" spans="1:47" ht="18" customHeight="1" thickBot="1">
-      <c r="A52" s="188" t="s">
+    <row r="51" spans="1:47" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="182"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="182"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="182"/>
+      <c r="P51" s="182"/>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="182"/>
+      <c r="T51" s="193"/>
+      <c r="U51" s="194"/>
+      <c r="V51" s="194"/>
+      <c r="W51" s="194"/>
+      <c r="X51" s="194"/>
+      <c r="Y51" s="194"/>
+      <c r="Z51" s="194"/>
+      <c r="AA51" s="194"/>
+      <c r="AB51" s="194"/>
+      <c r="AC51" s="194"/>
+      <c r="AD51" s="194"/>
+      <c r="AE51" s="194"/>
+      <c r="AF51" s="194"/>
+      <c r="AG51" s="194"/>
+      <c r="AH51" s="194"/>
+      <c r="AI51" s="194"/>
+      <c r="AJ51" s="194"/>
+      <c r="AK51" s="194"/>
+      <c r="AL51" s="194"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="194"/>
+      <c r="AQ51" s="194"/>
+      <c r="AR51" s="194"/>
+      <c r="AS51" s="194"/>
+    </row>
+    <row r="52" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="190"/>
-      <c r="H52" s="118">
+      <c r="B52" s="185"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="185"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="185"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="114">
         <f t="shared" ref="H52:AQ52" si="20">H15+H38</f>
         <v>0</v>
       </c>
-      <c r="I52" s="119">
+      <c r="I52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J52" s="118">
+      <c r="J52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K52" s="119">
+      <c r="K52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L52" s="118">
+      <c r="L52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M52" s="119">
+      <c r="M52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N52" s="118">
+      <c r="N52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O52" s="119">
+      <c r="O52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P52" s="118">
+      <c r="P52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="119">
+      <c r="Q52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R52" s="118">
+      <c r="R52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S52" s="119">
+      <c r="S52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T52" s="118">
+      <c r="T52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U52" s="119">
+      <c r="U52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V52" s="118">
+      <c r="V52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W52" s="119">
+      <c r="W52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X52" s="118">
+      <c r="X52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="119">
+      <c r="Y52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="118">
+      <c r="Z52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="119">
+      <c r="AA52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="118">
+      <c r="AB52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="119">
+      <c r="AC52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="118">
+      <c r="AD52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="119">
+      <c r="AE52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF52" s="118">
+      <c r="AF52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="119">
+      <c r="AG52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="118">
+      <c r="AH52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="119">
+      <c r="AI52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AJ52" s="118">
+      <c r="AJ52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="119">
+      <c r="AK52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="118">
+      <c r="AL52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AM52" s="119">
+      <c r="AM52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AN52" s="118">
+      <c r="AN52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="119">
+      <c r="AO52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AP52" s="118">
+      <c r="AP52" s="114">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AQ52" s="119">
+      <c r="AQ52" s="115">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR52" s="120">
+      <c r="AR52" s="116">
         <f>H52+J52+L52+N52+P52+R52+T52+V52+X52+Z52+AB52+AD52+AF52+AH52+AJ52+AL52+AN52+AP52</f>
         <v>0</v>
       </c>
-      <c r="AS52" s="121">
+      <c r="AS52" s="117">
         <f>I52+K52+M52+O52+Q52+S52+U52+W52+Y52+AA52+AC52+AE52+AG52+AI52+AK52+AM52+AO52+AQ52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:47" ht="18" customHeight="1" thickBot="1">
-      <c r="A53" s="188" t="s">
+    <row r="53" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="189"/>
-      <c r="C53" s="189"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="190"/>
-      <c r="H53" s="122">
+      <c r="B53" s="185"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="185"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="118">
         <f t="shared" ref="H53:AQ53" si="21">H26+H49</f>
         <v>0</v>
       </c>
-      <c r="I53" s="123">
+      <c r="I53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J53" s="122">
+      <c r="J53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K53" s="123">
+      <c r="K53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L53" s="122">
+      <c r="L53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M53" s="123">
+      <c r="M53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N53" s="122">
+      <c r="N53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O53" s="123">
+      <c r="O53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P53" s="122">
+      <c r="P53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="123">
+      <c r="Q53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R53" s="122">
+      <c r="R53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S53" s="123">
+      <c r="S53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T53" s="122">
+      <c r="T53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U53" s="123">
+      <c r="U53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V53" s="122">
+      <c r="V53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W53" s="123">
+      <c r="W53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X53" s="122">
+      <c r="X53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="123">
+      <c r="Y53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="122">
+      <c r="Z53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="123">
+      <c r="AA53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="122">
+      <c r="AB53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="123">
+      <c r="AC53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="122">
+      <c r="AD53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="123">
+      <c r="AE53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="122">
+      <c r="AF53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="123">
+      <c r="AG53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="122">
+      <c r="AH53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="123">
+      <c r="AI53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ53" s="122">
+      <c r="AJ53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="123">
+      <c r="AK53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="122">
+      <c r="AL53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="123">
+      <c r="AM53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AN53" s="122">
+      <c r="AN53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="123">
+      <c r="AO53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AP53" s="122">
+      <c r="AP53" s="118">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AQ53" s="123">
+      <c r="AQ53" s="119">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AR53" s="120">
+      <c r="AR53" s="116">
         <f>H53+J53+L53+N53+P53+R53+T53+V53+X53+Z53+AB53+AD53+AF53+AH53+AJ53+AL53+AN53+AP53</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="121">
+      <c r="AS53" s="117">
         <f>I53+K53+M53+O53+Q53+S53+U53+W53+Y53+AA53+AC53+AE53+AG53+AI53+AK53+AM53+AO53+AQ53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:47" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A54" s="187"/>
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="187"/>
-      <c r="F54" s="187"/>
-      <c r="G54" s="187"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="187"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
-      <c r="Q54" s="187"/>
-      <c r="R54" s="187"/>
-      <c r="S54" s="187"/>
-      <c r="T54" s="197"/>
-      <c r="U54" s="198"/>
-      <c r="V54" s="198"/>
-      <c r="W54" s="198"/>
-      <c r="X54" s="198"/>
-      <c r="Y54" s="198"/>
-      <c r="Z54" s="198"/>
-      <c r="AA54" s="198"/>
-      <c r="AB54" s="198"/>
-      <c r="AC54" s="198"/>
-      <c r="AD54" s="198"/>
-      <c r="AE54" s="198"/>
-      <c r="AF54" s="198"/>
-      <c r="AG54" s="198"/>
-      <c r="AH54" s="198"/>
-      <c r="AI54" s="198"/>
-      <c r="AJ54" s="198"/>
-      <c r="AK54" s="198"/>
-      <c r="AL54" s="198"/>
-      <c r="AM54" s="198"/>
-      <c r="AN54" s="198"/>
-      <c r="AO54" s="198"/>
-      <c r="AP54" s="198"/>
-      <c r="AQ54" s="198"/>
-      <c r="AR54" s="198"/>
-      <c r="AS54" s="198"/>
-    </row>
-    <row r="55" spans="1:47" s="125" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A55" s="183" t="s">
+    <row r="54" spans="1:47" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="183"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="183"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="183"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="183"/>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="183"/>
+      <c r="S54" s="183"/>
+      <c r="T54" s="193"/>
+      <c r="U54" s="194"/>
+      <c r="V54" s="194"/>
+      <c r="W54" s="194"/>
+      <c r="X54" s="194"/>
+      <c r="Y54" s="194"/>
+      <c r="Z54" s="194"/>
+      <c r="AA54" s="194"/>
+      <c r="AB54" s="194"/>
+      <c r="AC54" s="194"/>
+      <c r="AD54" s="194"/>
+      <c r="AE54" s="194"/>
+      <c r="AF54" s="194"/>
+      <c r="AG54" s="194"/>
+      <c r="AH54" s="194"/>
+      <c r="AI54" s="194"/>
+      <c r="AJ54" s="194"/>
+      <c r="AK54" s="194"/>
+      <c r="AL54" s="194"/>
+      <c r="AM54" s="194"/>
+      <c r="AN54" s="194"/>
+      <c r="AO54" s="194"/>
+      <c r="AP54" s="194"/>
+      <c r="AQ54" s="194"/>
+      <c r="AR54" s="194"/>
+      <c r="AS54" s="194"/>
+    </row>
+    <row r="55" spans="1:47" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="184"/>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="114">
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="110">
         <f t="shared" ref="H55:AQ55" si="22">H52+H53</f>
         <v>0</v>
       </c>
-      <c r="I55" s="115">
+      <c r="I55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J55" s="114">
+      <c r="J55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K55" s="115">
+      <c r="K55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L55" s="114">
+      <c r="L55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M55" s="115">
+      <c r="M55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N55" s="114">
+      <c r="N55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O55" s="115">
+      <c r="O55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P55" s="114">
+      <c r="P55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="115">
+      <c r="Q55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R55" s="114">
+      <c r="R55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S55" s="115">
+      <c r="S55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T55" s="114">
+      <c r="T55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U55" s="115">
+      <c r="U55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V55" s="114">
+      <c r="V55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="W55" s="115">
+      <c r="W55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X55" s="114">
+      <c r="X55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="115">
+      <c r="Y55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="114">
+      <c r="Z55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="115">
+      <c r="AA55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB55" s="114">
+      <c r="AB55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC55" s="115">
+      <c r="AC55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD55" s="114">
+      <c r="AD55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="115">
+      <c r="AE55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF55" s="114">
+      <c r="AF55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AG55" s="115">
+      <c r="AG55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH55" s="114">
+      <c r="AH55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI55" s="115">
+      <c r="AI55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AJ55" s="114">
+      <c r="AJ55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK55" s="115">
+      <c r="AK55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="114">
+      <c r="AL55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM55" s="115">
+      <c r="AM55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN55" s="114">
+      <c r="AN55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="115">
+      <c r="AO55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AP55" s="114">
+      <c r="AP55" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AQ55" s="115">
+      <c r="AQ55" s="111">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AR55" s="114">
+      <c r="AR55" s="110">
         <f>H55+J55+L55+N55+P55+R55+T55+V55+X55+Z55+AB55+AD55+AF55+AH55+AJ55+AL55+AN55+AP55</f>
         <v>0</v>
       </c>
-      <c r="AS55" s="115">
+      <c r="AS55" s="111">
         <f>I55+K55+M55+O55+Q55+S55+U55+W55+Y55+AA55+AC55+AE55+AG55+AI55+AK55+AM55+AO55+AQ55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" ht="12" customHeight="1">
+    <row r="56" spans="1:47" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -8477,84 +8068,84 @@
       <c r="AO56" s="6"/>
       <c r="AP56" s="6"/>
     </row>
-    <row r="57" spans="1:47" s="102" customFormat="1" ht="15.75">
-      <c r="B57" s="101" t="str">
+    <row r="57" spans="1:47" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="97" t="str">
         <f>CONCATENATE("Затвердженона  засіданні  кафедри ",РОЗПОДІЛ!C25)</f>
         <v>Затвердженона  засіданні  кафедри  "25" _серпня__ 2016_ р.  Протокол № _1_</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101" t="str">
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="97"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="97"/>
+      <c r="T57" s="97"/>
+      <c r="V57" s="97"/>
+      <c r="W57" s="97"/>
+      <c r="X57" s="97" t="e">
         <f>CONCATENATE("Завідувач кафедри _______________________________  / ",AU57," /")</f>
-        <v>Завідувач кафедри _______________________________  / Руденко О.Г. /</v>
-      </c>
-      <c r="Y57" s="101"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="101"/>
-      <c r="AC57" s="101"/>
-      <c r="AD57" s="101"/>
-      <c r="AE57" s="101"/>
-      <c r="AF57" s="101"/>
-      <c r="AG57" s="101"/>
-      <c r="AH57" s="101"/>
-      <c r="AI57" s="101"/>
-      <c r="AJ57" s="101"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="101"/>
-      <c r="AM57" s="101"/>
-      <c r="AN57" s="101"/>
-      <c r="AO57" s="101"/>
-      <c r="AP57" s="101"/>
-      <c r="AU57" s="102" t="str">
-        <f>VLOOKUP(ТИТУЛ!B12,'СПИСКИ (пароль 123)'!E3:F36,2,FALSE)</f>
-        <v>Руденко О.Г.</v>
-      </c>
-    </row>
-    <row r="58" spans="1:47" s="102" customFormat="1" ht="9" customHeight="1">
-      <c r="Y58" s="199"/>
-      <c r="Z58" s="200"/>
-      <c r="AA58" s="200"/>
-      <c r="AE58" s="201"/>
-      <c r="AF58" s="201"/>
-      <c r="AG58" s="201"/>
-      <c r="AH58" s="201"/>
-      <c r="AI58" s="201"/>
-    </row>
-    <row r="59" spans="1:47" s="102" customFormat="1" ht="15.75">
-      <c r="B59" s="101" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Y57" s="97"/>
+      <c r="Z57" s="97"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="97"/>
+      <c r="AC57" s="97"/>
+      <c r="AD57" s="97"/>
+      <c r="AE57" s="97"/>
+      <c r="AF57" s="97"/>
+      <c r="AG57" s="97"/>
+      <c r="AH57" s="97"/>
+      <c r="AI57" s="97"/>
+      <c r="AJ57" s="97"/>
+      <c r="AK57" s="97"/>
+      <c r="AL57" s="97"/>
+      <c r="AM57" s="97"/>
+      <c r="AN57" s="97"/>
+      <c r="AO57" s="97"/>
+      <c r="AP57" s="97"/>
+      <c r="AU57" s="98" t="e">
+        <f>VLOOKUP(ТИТУЛ!B12,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" s="98" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="195"/>
+      <c r="Z58" s="196"/>
+      <c r="AA58" s="196"/>
+      <c r="AE58" s="197"/>
+      <c r="AF58" s="197"/>
+      <c r="AG58" s="197"/>
+      <c r="AH58" s="197"/>
+      <c r="AI58" s="197"/>
+    </row>
+    <row r="59" spans="1:47" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="97" t="str">
         <f>CONCATENATE("Викладач  _______________________________ / ",ТИТУЛ!A24," /")</f>
         <v>Викладач  _______________________________ /  /</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="X59" s="101" t="str">
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="X59" s="97" t="e">
         <f>CONCATENATE("Декан факультету  _______________________________  / ",AU59," /")</f>
-        <v>Декан факультету  _______________________________  / Коц Г.П. /</v>
-      </c>
-      <c r="AU59" s="102" t="str">
-        <f>VLOOKUP(ТИТУЛ!B9,'СПИСКИ (пароль 123)'!A3:C9,3,FALSE)</f>
-        <v>Коц Г.П.</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47" ht="15.75">
+        <v>#REF!</v>
+      </c>
+      <c r="AU59" s="98" t="e">
+        <f>VLOOKUP(ТИТУЛ!B9,#REF!,3,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="T60" s="18"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
@@ -8562,7 +8153,6 @@
       <c r="Y60" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="46">
     <mergeCell ref="A16:A26"/>
     <mergeCell ref="G2:G4"/>
@@ -8928,18 +8518,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="64.7109375" style="2" customWidth="1"/>
@@ -8950,15 +8540,15 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-    </row>
-    <row r="2" spans="1:9" ht="57.75" customHeight="1" thickBot="1">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+    </row>
+    <row r="2" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>71</v>
       </c>
@@ -8981,7 +8571,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="82"/>
       <c r="C3" s="49"/>
@@ -8992,7 +8582,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="83"/>
       <c r="C4" s="52"/>
@@ -9003,7 +8593,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="83"/>
       <c r="C5" s="52"/>
@@ -9014,7 +8604,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="83"/>
       <c r="C6" s="52"/>
@@ -9025,7 +8615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="83"/>
       <c r="C7" s="52"/>
@@ -9036,7 +8626,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="83"/>
       <c r="C8" s="52"/>
@@ -9047,7 +8637,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="83"/>
       <c r="C9" s="52"/>
@@ -9058,7 +8648,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="83"/>
       <c r="C10" s="52"/>
@@ -9069,7 +8659,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="83"/>
       <c r="C11" s="52"/>
@@ -9080,7 +8670,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="84"/>
       <c r="C12" s="54"/>
@@ -9091,13 +8681,13 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="247" t="s">
+    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="249"/>
+      <c r="B13" s="244"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="245"/>
       <c r="E13" s="47">
         <f>SUM(E3:E12)</f>
         <v>0</v>
@@ -9110,29 +8700,29 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A14" s="250" t="str">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="246" t="e">
         <f>CONCATENATE("Викладач ______________      Завідувач кафедри  ____________       / ",'НАВЧАЛЬНА РОБОТА'!AU57," /")</f>
-        <v>Викладач ______________      Завідувач кафедри  ____________       / Руденко О.Г. /</v>
-      </c>
-      <c r="B14" s="251"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="252"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B14" s="247"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="248"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A15" s="243" t="s">
+    <row r="15" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="239" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="243"/>
-      <c r="C15" s="243"/>
-      <c r="D15" s="243"/>
-    </row>
-    <row r="16" spans="1:9" ht="51.75" thickBot="1">
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+    </row>
+    <row r="16" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>71</v>
       </c>
@@ -9152,7 +8742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="82"/>
       <c r="C17" s="49"/>
@@ -9160,7 +8750,7 @@
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="83"/>
       <c r="C18" s="52"/>
@@ -9168,15 +8758,15 @@
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
     </row>
-    <row r="19" spans="1:6" ht="39.75" customHeight="1">
+    <row r="19" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
-      <c r="B19" s="139"/>
+      <c r="B19" s="135"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="83"/>
       <c r="C20" s="52"/>
@@ -9184,7 +8774,7 @@
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="B21" s="83"/>
       <c r="C21" s="52"/>
@@ -9192,7 +8782,7 @@
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="83"/>
       <c r="C22" s="52"/>
@@ -9200,7 +8790,7 @@
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="83"/>
       <c r="C23" s="52"/>
@@ -9208,7 +8798,7 @@
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="83"/>
       <c r="C24" s="52"/>
@@ -9216,7 +8806,7 @@
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="83"/>
       <c r="C25" s="52"/>
@@ -9224,7 +8814,7 @@
       <c r="E25" s="52"/>
       <c r="F25" s="52"/>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
       <c r="B26" s="83"/>
       <c r="C26" s="52"/>
@@ -9232,13 +8822,13 @@
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="247" t="s">
+    <row r="27" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="248"/>
-      <c r="C27" s="248"/>
-      <c r="D27" s="249"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="245"/>
       <c r="E27" s="47">
         <f>SUM(E17:E26)</f>
         <v>0</v>
@@ -9248,26 +8838,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A28" s="244" t="str">
+    <row r="28" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="240" t="e">
         <f>A14</f>
-        <v>Викладач ______________      Завідувач кафедри  ____________       / Руденко О.Г. /</v>
-      </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="246"/>
-    </row>
-    <row r="29" spans="1:6" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A29" s="243" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="242"/>
+    </row>
+    <row r="29" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="243"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
-    </row>
-    <row r="30" spans="1:6" ht="43.5" thickBot="1">
+      <c r="B29" s="239"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+    </row>
+    <row r="30" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>71</v>
       </c>
@@ -9287,7 +8877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1">
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="82"/>
       <c r="C31" s="49"/>
@@ -9295,31 +8885,31 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1">
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="138"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
     </row>
-    <row r="33" spans="1:6" ht="33" customHeight="1">
+    <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="138"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1">
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="105"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
     </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1">
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="83"/>
       <c r="C35" s="52"/>
@@ -9327,7 +8917,7 @@
       <c r="E35" s="52"/>
       <c r="F35" s="52"/>
     </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1">
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="83"/>
       <c r="C36" s="52"/>
@@ -9335,7 +8925,7 @@
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
     </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1">
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="83"/>
       <c r="C37" s="52"/>
@@ -9343,7 +8933,7 @@
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
     </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1">
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52"/>
       <c r="B38" s="83"/>
       <c r="C38" s="52"/>
@@ -9351,7 +8941,7 @@
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1">
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="83"/>
       <c r="C39" s="52"/>
@@ -9359,7 +8949,7 @@
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52"/>
       <c r="B40" s="83"/>
       <c r="C40" s="52"/>
@@ -9367,13 +8957,13 @@
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A41" s="247" t="s">
+    <row r="41" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="248"/>
-      <c r="C41" s="248"/>
-      <c r="D41" s="249"/>
+      <c r="B41" s="244"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="47">
         <f>SUM(E31:E40)</f>
         <v>0</v>
@@ -9383,19 +8973,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A42" s="244" t="str">
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="240" t="e">
         <f>A28</f>
-        <v>Викладач ______________      Завідувач кафедри  ____________       / Руденко О.Г. /</v>
-      </c>
-      <c r="B42" s="245"/>
-      <c r="C42" s="245"/>
-      <c r="D42" s="245"/>
-      <c r="E42" s="245"/>
-      <c r="F42" s="246"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B42" s="241"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="242"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" selectLockedCells="1"/>
   <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A15:D15"/>
@@ -9425,24 +9014,24 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
@@ -9456,22 +9045,22 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
       <c r="G1" s="23"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>46</v>
       </c>
@@ -9498,7 +9087,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="32.25" customHeight="1">
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59"/>
       <c r="C3" s="60"/>
@@ -9511,7 +9100,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1">
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62"/>
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
@@ -9524,7 +9113,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1">
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="63"/>
       <c r="C5" s="64"/>
@@ -9537,7 +9126,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1">
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -9550,7 +9139,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="32.25" customHeight="1">
+    <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -9563,7 +9152,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1">
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -9576,7 +9165,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="68"/>
@@ -9585,182 +9174,181 @@
       <c r="F9" s="68"/>
       <c r="G9" s="69"/>
     </row>
-    <row r="11" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A11" s="255" t="s">
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="255"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-    </row>
-    <row r="12" spans="1:11" ht="51" thickBot="1">
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+    </row>
+    <row r="12" spans="1:11" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="256" t="s">
+      <c r="B12" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
       <c r="G12" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="52.5" customHeight="1">
+    <row r="13" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="257" t="str">
+      <c r="B13" s="253" t="str">
         <f>CONCATENATE("Звіт про виконання індивідуального плану за ",ТИТУЛ!A34," навчальний рік викладача ",ТИТУЛ!A24," розглянуто ___  _____________ 20__ р. на засіданні кафедри ",ТИТУЛ!B12," й ухвалено рішення (протокол №______): Індивідуальний план виконано в обсязі ",РОЗПОДІЛ!E19," годин.")</f>
-        <v>Звіт про виконання індивідуального плану за  навчальний рік викладача  розглянуто ___  _____________ 20__ р. на засіданні кафедри Інформаційних систем й ухвалено рішення (протокол №______): Індивідуальний план виконано в обсязі 0 годин.</v>
-      </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="258"/>
-      <c r="F13" s="259"/>
+        <v>Звіт про виконання індивідуального плану за  навчальний рік викладача  розглянуто ___  _____________ 20__ р. на засіданні кафедри  й ухвалено рішення (протокол №______): Індивідуальний план виконано в обсязі 0 годин.</v>
+      </c>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="255"/>
       <c r="G13" s="61"/>
     </row>
-    <row r="14" spans="1:11" ht="44.25" customHeight="1">
+    <row r="14" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
-      <c r="F14" s="262"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="258"/>
       <c r="G14" s="65"/>
     </row>
-    <row r="15" spans="1:11" ht="32.25" customHeight="1">
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:11" ht="32.25" customHeight="1">
+    <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="32.25" customHeight="1">
+    <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="253"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254"/>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
       <c r="G18" s="69"/>
     </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A20" s="255" t="s">
+    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="255"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
-      <c r="E20" s="255"/>
-      <c r="F20" s="255"/>
-      <c r="G20" s="255"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" thickBot="1">
+      <c r="B20" s="251"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="256" t="s">
+      <c r="B21" s="252" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
       <c r="G21" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+    <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="263"/>
-      <c r="C22" s="263"/>
-      <c r="D22" s="263"/>
-      <c r="E22" s="263"/>
-      <c r="F22" s="263"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
       <c r="G22" s="61"/>
     </row>
-    <row r="23" spans="1:7" ht="32.25" customHeight="1">
+    <row r="23" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
+      <c r="B23" s="249"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
       <c r="G23" s="65"/>
     </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1">
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="253"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="32.25" customHeight="1">
+    <row r="25" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
       <c r="G25" s="65"/>
     </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+    <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="253"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
       <c r="G26" s="65"/>
     </row>
-    <row r="27" spans="1:7" ht="32.25" customHeight="1">
+    <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="253"/>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="253"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55"/>
-      <c r="B28" s="254"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="254"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="254"/>
+      <c r="B28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="250"/>
       <c r="G28" s="69"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9C" sheet="1" formatCells="0" selectLockedCells="1"/>
   <mergeCells count="18">
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="A20:G20"/>
@@ -9787,550 +9375,4 @@
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="92" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="91">
-        <v>101</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="94">
-        <v>101</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A4" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="91">
-        <v>201</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="94">
-        <v>102</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A5" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="91">
-        <v>301</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="94">
-        <v>103</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A6" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="91">
-        <v>401</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="94">
-        <v>104</v>
-      </c>
-      <c r="E6" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A7" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="91">
-        <v>501</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="94">
-        <v>105</v>
-      </c>
-      <c r="E7" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A8" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="91">
-        <v>601</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="94">
-        <v>106</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A9" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="91">
-        <v>701</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="94">
-        <v>201</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="93"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D10" s="94">
-        <v>202</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="93"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D11" s="94">
-        <v>203</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="93"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D12" s="94">
-        <v>204</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D13" s="94">
-        <v>301</v>
-      </c>
-      <c r="E13" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D14" s="94">
-        <v>302</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D15" s="94">
-        <v>303</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1">
-      <c r="D16" s="94">
-        <v>304</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D17" s="94">
-        <v>401</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="93" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D18" s="94">
-        <v>402</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D19" s="94">
-        <v>403</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="93" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D20" s="94">
-        <v>404</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D21" s="94">
-        <v>405</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D22" s="94">
-        <v>406</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D23" s="94">
-        <v>501</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="93" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D24" s="94">
-        <v>502</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D25" s="94">
-        <v>503</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="93" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D26" s="94">
-        <v>504</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D27" s="94">
-        <v>505</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D28" s="94">
-        <v>506</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D29" s="94">
-        <v>507</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D30" s="94">
-        <v>601</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D31" s="94">
-        <v>602</v>
-      </c>
-      <c r="E31" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="22.5" customHeight="1">
-      <c r="D32" s="94">
-        <v>603</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="93" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" ht="22.5" customHeight="1">
-      <c r="D33" s="94">
-        <v>604</v>
-      </c>
-      <c r="E33" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="22.5" customHeight="1">
-      <c r="D34" s="94">
-        <v>701</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="93" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" ht="22.5" customHeight="1">
-      <c r="D35" s="94">
-        <v>702</v>
-      </c>
-      <c r="E35" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" ht="22.5" customHeight="1">
-      <c r="D36" s="94">
-        <v>703</v>
-      </c>
-      <c r="E36" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="4:9" s="72" customFormat="1" ht="22.5" customHeight="1">
-      <c r="D37" s="94"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="I37" s="92"/>
-    </row>
-    <row r="38" spans="4:9" s="72" customFormat="1" ht="22.5" customHeight="1">
-      <c r="D38" s="94"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="I38" s="92"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Planner/Planner/App_Data/Blank_2017_Ind_plan.xlsx
+++ b/Planner/Planner/App_Data/Blank_2017_Ind_plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Planner\Planner\Planner\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6480" tabRatio="597"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="11340" windowHeight="6480" tabRatio="597" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ТИТУЛ" sheetId="1" r:id="rId1"/>
@@ -1772,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1927,10 +1927,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2060,10 +2056,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2161,6 +2153,50 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2190,29 +2226,56 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2235,56 +2298,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2295,37 +2361,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2334,6 +2369,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2346,9 +2402,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2358,9 +2411,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" textRotation="90" wrapText="1"/>
     </xf>
@@ -2382,15 +2432,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2409,65 +2450,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2503,10 +2515,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2535,6 +2543,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3191,7 +3203,7 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3204,251 +3216,251 @@
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" style="73" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="74" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="106" customWidth="1"/>
-    <col min="13" max="13" width="76" style="106" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" style="72" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="73" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="104" customWidth="1"/>
+    <col min="13" max="13" width="76" style="104" customWidth="1"/>
     <col min="14" max="23" width="18.42578125" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="76"/>
-    </row>
-    <row r="2" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="74" t="e">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="75"/>
+    </row>
+    <row r="2" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="73" t="e">
         <f>VLOOKUP(B9,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="I2" s="73" t="e">
+      <c r="I2" s="72" t="e">
         <f>VLOOKUP(H2,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="74">
         <v>1</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="K2" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-    </row>
-    <row r="3" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H3" s="74" t="e">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="73" t="e">
         <f>H2+1</f>
         <v>#REF!</v>
       </c>
-      <c r="I3" s="73" t="e">
+      <c r="I3" s="72" t="e">
         <f>VLOOKUP(H3,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="J3" s="75">
+      <c r="J3" s="74">
         <v>0.75</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-    </row>
-    <row r="4" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H4" s="74" t="e">
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="73" t="e">
         <f t="shared" ref="H4:H8" si="0">H3+1</f>
         <v>#REF!</v>
       </c>
-      <c r="I4" s="73" t="e">
+      <c r="I4" s="72" t="e">
         <f>VLOOKUP(H4,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="75">
+      <c r="J4" s="74">
         <v>0.5</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-    </row>
-    <row r="5" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H5" s="74" t="e">
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="73" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="73" t="e">
+      <c r="I5" s="72" t="e">
         <f>VLOOKUP(H5,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="J5" s="75">
+      <c r="J5" s="74">
         <v>0.25</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-    </row>
-    <row r="6" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="74" t="e">
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="73" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I6" s="73" t="e">
+      <c r="I6" s="72" t="e">
         <f>VLOOKUP(H6,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-    </row>
-    <row r="7" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="74" t="e">
+      <c r="K6" s="73"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="73" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="73" t="e">
+      <c r="I7" s="72" t="e">
         <f>VLOOKUP(H7,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-    </row>
-    <row r="8" spans="1:14" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="74" t="e">
+      <c r="K7" s="73"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="1:14" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="73" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I8" s="73" t="e">
+      <c r="I8" s="72" t="e">
         <f>VLOOKUP(H8,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="152"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="92"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="75"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="91"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="75"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="92"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="74"/>
     </row>
     <row r="11" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="91"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="75"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="90"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="149"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="91"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="75"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="90"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="74"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L13" s="143"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="75"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="74"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M14" s="105"/>
-      <c r="N14" s="75"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M15" s="105"/>
-      <c r="N15" s="75"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="74"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M16" s="105"/>
-      <c r="N16" s="75"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="74"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="105"/>
-      <c r="N17" s="75"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="74"/>
     </row>
     <row r="18" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M18" s="105"/>
-      <c r="N18" s="75"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="74"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="75"/>
+      <c r="A19" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="74"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="75"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="74"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -3458,8 +3470,8 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="75"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="74"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -3469,8 +3481,8 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="75"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="74"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -3480,34 +3492,34 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="75"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="74"/>
     </row>
     <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="75"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="74"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="75"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="74"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
@@ -3515,10 +3527,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="71"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="19"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="75"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="74"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
@@ -3526,10 +3538,10 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="71"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="19"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="75"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="74"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
@@ -3537,10 +3549,10 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="71"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="19"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="75"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="74"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
@@ -3548,10 +3560,10 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="70"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="8"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="75"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="74"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
@@ -3559,10 +3571,10 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="70"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="8"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="75"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="74"/>
     </row>
     <row r="31" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
@@ -3570,14 +3582,14 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="70"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="8"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="75"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="74"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M32" s="105"/>
-      <c r="N32" s="75"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="74"/>
     </row>
     <row r="33" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3595,43 +3607,36 @@
       <c r="E33" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="138"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="75"/>
+      <c r="G33" s="148"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="74"/>
     </row>
     <row r="34" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="140"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="142"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="150"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="152"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L35" s="143"/>
-      <c r="M35" s="142"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="152"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M36" s="136"/>
+      <c r="M36" s="146"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M37" s="136"/>
+      <c r="M37" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
@@ -3644,6 +3649,13 @@
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3682,48 +3694,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="154"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="102">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="100">
         <f>ТИТУЛ!E34*1548</f>
         <v>0</v>
       </c>
-      <c r="G2" s="103"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="152"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -3740,46 +3752,46 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="152"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="164"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="34" t="s">
         <v>53</v>
       </c>
@@ -3788,11 +3800,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="41">
         <f>'НАВЧАЛЬНА РОБОТА'!AR55</f>
         <v>0</v>
@@ -3803,11 +3815,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="41">
         <f>'МЕТОД+НАУК+ОРГАН'!E13</f>
         <v>0</v>
@@ -3818,11 +3830,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="41">
         <f>'МЕТОД+НАУК+ОРГАН'!E27</f>
         <v>0</v>
@@ -3833,11 +3845,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="43">
         <f>'МЕТОД+НАУК+ОРГАН'!E41</f>
         <v>0</v>
@@ -3848,11 +3860,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="174"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="45">
         <f>D15+D16+D17+D18</f>
         <v>0</v>
@@ -3861,11 +3873,11 @@
         <f>E15+E16+E17+E18</f>
         <v>0</v>
       </c>
-      <c r="F19" s="102">
+      <c r="F19" s="100">
         <f>F2-D19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="101">
         <f>IF(F19=0,0,"- відхілення від норматива")</f>
         <v>0</v>
       </c>
@@ -3873,21 +3885,21 @@
     <row r="20" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:7" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="175" t="str">
+      <c r="A23" s="171" t="str">
         <f>CONCATENATE("Індивідуальний план склав _______________________ / ",ТИТУЛ!A24," /")</f>
         <v>Індивідуальний план склав _______________________ /  /</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
     </row>
     <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -3897,15 +3909,15 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="99" t="s">
+      <c r="B25" s="173"/>
+      <c r="C25" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="156"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -3913,15 +3925,15 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="161"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
@@ -3981,6 +3993,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="A27:E27"/>
@@ -3994,14 +4014,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:E19">
     <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="equal">
@@ -4026,7 +4038,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL9" sqref="AL9"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4058,161 +4070,161 @@
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:45" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="181" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="227" t="s">
+      <c r="D2" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="229" t="s">
+      <c r="E2" s="208" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="225" t="s">
+      <c r="F2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="225" t="s">
+      <c r="G2" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="222"/>
-      <c r="J2" s="198" t="s">
+      <c r="I2" s="203"/>
+      <c r="J2" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="219"/>
-      <c r="L2" s="198" t="s">
+      <c r="K2" s="190"/>
+      <c r="L2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="219"/>
-      <c r="N2" s="198" t="s">
+      <c r="M2" s="190"/>
+      <c r="N2" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="219"/>
-      <c r="P2" s="198" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="198" t="s">
+      <c r="Q2" s="190"/>
+      <c r="R2" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="219"/>
-      <c r="T2" s="198" t="s">
+      <c r="S2" s="190"/>
+      <c r="T2" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="219"/>
-      <c r="V2" s="202" t="s">
+      <c r="U2" s="190"/>
+      <c r="V2" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="W2" s="210"/>
-      <c r="X2" s="202" t="s">
+      <c r="W2" s="194"/>
+      <c r="X2" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="213" t="s">
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="198" t="s">
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="227"/>
+      <c r="AF2" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="199"/>
-      <c r="AH2" s="198" t="s">
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="198" t="s">
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="199"/>
-      <c r="AL2" s="198" t="s">
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="199"/>
-      <c r="AN2" s="198" t="s">
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="202" t="s">
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="203"/>
-      <c r="AR2" s="206" t="s">
+      <c r="AQ2" s="218"/>
+      <c r="AR2" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="AS2" s="207"/>
+      <c r="AS2" s="222"/>
     </row>
     <row r="3" spans="1:45" ht="119.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="234"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="211"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="211"/>
-      <c r="Y3" s="212"/>
-      <c r="Z3" s="216" t="s">
+      <c r="A3" s="184"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="216" t="s">
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="216" t="s">
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="218"/>
-      <c r="AF3" s="200"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="200"/>
-      <c r="AI3" s="201"/>
-      <c r="AJ3" s="200"/>
-      <c r="AK3" s="201"/>
-      <c r="AL3" s="200"/>
-      <c r="AM3" s="201"/>
-      <c r="AN3" s="200"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="204"/>
-      <c r="AQ3" s="205"/>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="209"/>
+      <c r="AE3" s="230"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="217"/>
+      <c r="AJ3" s="216"/>
+      <c r="AK3" s="217"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="217"/>
+      <c r="AN3" s="216"/>
+      <c r="AO3" s="217"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="220"/>
+      <c r="AR3" s="223"/>
+      <c r="AS3" s="224"/>
     </row>
     <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="235"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
       <c r="H4" s="21" t="s">
         <v>36</v>
       </c>
@@ -4321,65 +4333,65 @@
       <c r="AQ4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AR4" s="122" t="s">
+      <c r="AR4" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="AS4" s="123" t="s">
+      <c r="AS4" s="121" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="197" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="49"/>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="129" t="s">
         <v>95</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="51"/>
-      <c r="I5" s="86"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="51"/>
-      <c r="K5" s="86"/>
+      <c r="K5" s="85"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="86"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="51"/>
-      <c r="O5" s="86"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="51"/>
-      <c r="Q5" s="86"/>
+      <c r="Q5" s="85"/>
       <c r="R5" s="51"/>
-      <c r="S5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="51"/>
-      <c r="U5" s="86"/>
+      <c r="U5" s="85"/>
       <c r="V5" s="51"/>
-      <c r="W5" s="86"/>
+      <c r="W5" s="85"/>
       <c r="X5" s="51"/>
-      <c r="Y5" s="86"/>
+      <c r="Y5" s="85"/>
       <c r="Z5" s="51"/>
-      <c r="AA5" s="86"/>
+      <c r="AA5" s="85"/>
       <c r="AB5" s="51"/>
-      <c r="AC5" s="86"/>
+      <c r="AC5" s="85"/>
       <c r="AD5" s="51"/>
-      <c r="AE5" s="86"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="51"/>
-      <c r="AG5" s="86"/>
+      <c r="AG5" s="85"/>
       <c r="AH5" s="51"/>
-      <c r="AI5" s="86"/>
+      <c r="AI5" s="85"/>
       <c r="AJ5" s="51"/>
-      <c r="AK5" s="86"/>
+      <c r="AK5" s="85"/>
       <c r="AL5" s="51"/>
-      <c r="AM5" s="86"/>
+      <c r="AM5" s="85"/>
       <c r="AN5" s="51"/>
-      <c r="AO5" s="86"/>
+      <c r="AO5" s="85"/>
       <c r="AP5" s="51"/>
-      <c r="AQ5" s="86"/>
+      <c r="AQ5" s="85"/>
       <c r="AR5" s="17">
         <f t="shared" ref="AR5:AS7" si="0">H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5+AN5+AP5</f>
         <v>0</v>
@@ -4390,49 +4402,49 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="52"/>
-      <c r="C6" s="83"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="88"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="87"/>
       <c r="AR6" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4443,49 +4455,49 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="177"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="52"/>
-      <c r="C7" s="83"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="88"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="88"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="88"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="88"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="87"/>
       <c r="AR7" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4496,49 +4508,49 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="177"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="52"/>
-      <c r="C8" s="83"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="88"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="87"/>
       <c r="AR8" s="37">
         <f t="shared" ref="AR8:AR14" si="1">H8+J8+L8+N8+P8+R8+T8+V8+X8+Z8+AB8+AD8+AF8+AH8+AJ8+AL8+AN8+AP8</f>
         <v>0</v>
@@ -4549,49 +4561,49 @@
       </c>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="177"/>
+      <c r="A9" s="198"/>
       <c r="B9" s="52"/>
-      <c r="C9" s="83"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="52"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="88"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="88"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
       <c r="AR9" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4602,49 +4614,49 @@
       </c>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="177"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="52"/>
-      <c r="C10" s="83"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="52"/>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="88"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="88"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="87"/>
       <c r="AR10" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4655,49 +4667,49 @@
       </c>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="177"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="52"/>
-      <c r="C11" s="83"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="88"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="87"/>
       <c r="AR11" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4708,49 +4720,49 @@
       </c>
     </row>
     <row r="12" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="177"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="52"/>
-      <c r="C12" s="83"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="88"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="88"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="87"/>
       <c r="AR12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4761,49 +4773,49 @@
       </c>
     </row>
     <row r="13" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="177"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="52"/>
-      <c r="C13" s="83"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="88"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="87"/>
       <c r="AR13" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4814,49 +4826,49 @@
       </c>
     </row>
     <row r="14" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="177"/>
+      <c r="A14" s="198"/>
       <c r="B14" s="54"/>
-      <c r="C14" s="84"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="90"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="89"/>
       <c r="AR14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4867,214 +4879,214 @@
       </c>
     </row>
     <row r="15" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
-      <c r="B15" s="190" t="s">
+      <c r="A15" s="199"/>
+      <c r="B15" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="191"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="112">
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="110">
         <f t="shared" ref="H15:AQ15" si="3">SUM(H5:H14)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="113">
+      <c r="K15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="112">
+      <c r="L15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="113">
+      <c r="M15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="112">
+      <c r="N15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="113">
+      <c r="O15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="112">
+      <c r="P15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="113">
+      <c r="Q15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="112">
+      <c r="R15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="113">
+      <c r="S15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="112">
+      <c r="T15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="113">
+      <c r="U15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="112">
+      <c r="V15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W15" s="113">
+      <c r="W15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X15" s="112">
+      <c r="X15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="113">
+      <c r="Y15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="112">
+      <c r="Z15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="113">
+      <c r="AA15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="112">
+      <c r="AB15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="113">
+      <c r="AC15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="112">
+      <c r="AD15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="113">
+      <c r="AE15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="112">
+      <c r="AF15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="113">
+      <c r="AG15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH15" s="112">
+      <c r="AH15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="113">
+      <c r="AI15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="112">
+      <c r="AJ15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="113">
+      <c r="AK15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="112">
+      <c r="AL15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM15" s="113">
+      <c r="AM15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="112">
+      <c r="AN15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="113">
+      <c r="AO15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="112">
+      <c r="AP15" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="113">
+      <c r="AQ15" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="112">
+      <c r="AR15" s="110">
         <f t="shared" ref="AR15:AS17" si="4">H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15+AF15+AH15+AJ15+AL15+AN15+AP15</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="113">
+      <c r="AS15" s="111">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="179" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="56"/>
-      <c r="C16" s="82"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="86"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="51"/>
-      <c r="K16" s="86"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="51"/>
-      <c r="M16" s="86"/>
+      <c r="M16" s="85"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="86"/>
+      <c r="O16" s="85"/>
       <c r="P16" s="51"/>
-      <c r="Q16" s="86"/>
+      <c r="Q16" s="85"/>
       <c r="R16" s="51"/>
-      <c r="S16" s="86"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="51"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="51"/>
-      <c r="W16" s="86"/>
+      <c r="W16" s="85"/>
       <c r="X16" s="51"/>
-      <c r="Y16" s="86"/>
+      <c r="Y16" s="85"/>
       <c r="Z16" s="51"/>
-      <c r="AA16" s="86"/>
+      <c r="AA16" s="85"/>
       <c r="AB16" s="51"/>
-      <c r="AC16" s="86"/>
+      <c r="AC16" s="85"/>
       <c r="AD16" s="51"/>
-      <c r="AE16" s="86"/>
+      <c r="AE16" s="85"/>
       <c r="AF16" s="51"/>
-      <c r="AG16" s="86"/>
+      <c r="AG16" s="85"/>
       <c r="AH16" s="51"/>
-      <c r="AI16" s="86"/>
+      <c r="AI16" s="85"/>
       <c r="AJ16" s="51"/>
-      <c r="AK16" s="86"/>
+      <c r="AK16" s="85"/>
       <c r="AL16" s="51"/>
-      <c r="AM16" s="86"/>
+      <c r="AM16" s="85"/>
       <c r="AN16" s="51"/>
-      <c r="AO16" s="86"/>
+      <c r="AO16" s="85"/>
       <c r="AP16" s="51"/>
-      <c r="AQ16" s="86"/>
+      <c r="AQ16" s="85"/>
       <c r="AR16" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5085,49 +5097,49 @@
       </c>
     </row>
     <row r="17" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="232"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="52"/>
-      <c r="C17" s="83"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="52"/>
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="88"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="88"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="86"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="86"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="86"/>
+      <c r="AQ17" s="87"/>
       <c r="AR17" s="37">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5138,49 +5150,49 @@
       </c>
     </row>
     <row r="18" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="232"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="52"/>
-      <c r="C18" s="83"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="52"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="88"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="88"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="86"/>
+      <c r="AQ18" s="87"/>
       <c r="AR18" s="37">
         <f t="shared" ref="AR18:AR27" si="5">H18+J18+L18+N18+P18+R18+T18+V18+X18+Z18+AB18+AD18+AF18+AH18+AJ18+AL18+AN18+AP18</f>
         <v>0</v>
@@ -5191,49 +5203,49 @@
       </c>
     </row>
     <row r="19" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="232"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="52"/>
-      <c r="C19" s="83"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="88"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="86"/>
+      <c r="AQ19" s="87"/>
       <c r="AR19" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5243,50 +5255,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="232"/>
+    <row r="20" spans="1:45" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="180"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="83"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="88"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="86"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="86"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="86"/>
+      <c r="AQ20" s="87"/>
       <c r="AR20" s="37">
         <f t="shared" ref="AR20" si="7">H20+J20+L20+N20+P20+R20+T20+V20+X20+Z20+AB20+AD20+AF20+AH20+AJ20+AL20+AN20+AP20</f>
         <v>0</v>
@@ -5297,49 +5309,49 @@
       </c>
     </row>
     <row r="21" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="232"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="83"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="52"/>
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="88"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="88"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="86"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="86"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="86"/>
+      <c r="AQ21" s="87"/>
       <c r="AR21" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5350,49 +5362,49 @@
       </c>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="232"/>
+      <c r="A22" s="180"/>
       <c r="B22" s="52"/>
-      <c r="C22" s="83"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="88"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="88"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="86"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="86"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="86"/>
+      <c r="AQ22" s="87"/>
       <c r="AR22" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5403,49 +5415,49 @@
       </c>
     </row>
     <row r="23" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="232"/>
+      <c r="A23" s="180"/>
       <c r="B23" s="52"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="88"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="88"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="86"/>
+      <c r="AQ23" s="87"/>
       <c r="AR23" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5456,49 +5468,49 @@
       </c>
     </row>
     <row r="24" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="232"/>
+      <c r="A24" s="180"/>
       <c r="B24" s="52"/>
-      <c r="C24" s="83"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="88"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="88"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="88"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="86"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="86"/>
+      <c r="AQ24" s="87"/>
       <c r="AR24" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5509,49 +5521,49 @@
       </c>
     </row>
     <row r="25" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="232"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="84"/>
+      <c r="C25" s="83"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="90"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="90"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="89"/>
+      <c r="AP25" s="88"/>
+      <c r="AQ25" s="89"/>
       <c r="AR25" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5562,377 +5574,377 @@
       </c>
     </row>
     <row r="26" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="232"/>
-      <c r="B26" s="236" t="s">
+      <c r="A26" s="180"/>
+      <c r="B26" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="237"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="112">
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="110">
         <f t="shared" ref="H26:AQ26" si="9">SUM(H16:H25)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="113">
+      <c r="I26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="113">
+      <c r="K26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L26" s="112">
+      <c r="L26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M26" s="113">
+      <c r="M26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N26" s="112">
+      <c r="N26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O26" s="113">
+      <c r="O26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P26" s="112">
+      <c r="P26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="113">
+      <c r="Q26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R26" s="112">
+      <c r="R26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S26" s="113">
+      <c r="S26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T26" s="112">
+      <c r="T26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U26" s="113">
+      <c r="U26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V26" s="112">
+      <c r="V26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W26" s="113">
+      <c r="W26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X26" s="112">
+      <c r="X26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="113">
+      <c r="Y26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="112">
+      <c r="Z26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="113">
+      <c r="AA26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="112">
+      <c r="AB26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="113">
+      <c r="AC26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="112">
+      <c r="AD26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="113">
+      <c r="AE26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="112">
+      <c r="AF26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="113">
+      <c r="AG26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH26" s="112">
+      <c r="AH26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="113">
+      <c r="AI26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AJ26" s="112">
+      <c r="AJ26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK26" s="113">
+      <c r="AK26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="112">
+      <c r="AL26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AM26" s="113">
+      <c r="AM26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="112">
+      <c r="AN26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AO26" s="113">
+      <c r="AO26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="112">
+      <c r="AP26" s="110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AQ26" s="113">
+      <c r="AQ26" s="111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AR26" s="112">
+      <c r="AR26" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS26" s="113">
+      <c r="AS26" s="111">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="179" t="s">
+    <row r="27" spans="1:45" s="118" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="110">
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="108">
         <f t="shared" ref="H27:AQ27" si="10">H15+H26</f>
         <v>0</v>
       </c>
-      <c r="I27" s="111">
+      <c r="I27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J27" s="110">
+      <c r="J27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K27" s="111">
+      <c r="K27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L27" s="110">
+      <c r="L27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M27" s="111">
+      <c r="M27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N27" s="110">
+      <c r="N27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O27" s="111">
+      <c r="O27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P27" s="110">
+      <c r="P27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R27" s="110">
+      <c r="R27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S27" s="111">
+      <c r="S27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T27" s="110">
+      <c r="T27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U27" s="111">
+      <c r="U27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V27" s="110">
+      <c r="V27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W27" s="111">
+      <c r="W27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X27" s="110">
+      <c r="X27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="111">
+      <c r="Y27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="110">
+      <c r="Z27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="111">
+      <c r="AA27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="110">
+      <c r="AB27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="111">
+      <c r="AC27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="110">
+      <c r="AD27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="111">
+      <c r="AE27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="110">
+      <c r="AF27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="111">
+      <c r="AG27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH27" s="110">
+      <c r="AH27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="111">
+      <c r="AI27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AJ27" s="110">
+      <c r="AJ27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AK27" s="111">
+      <c r="AK27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AL27" s="110">
+      <c r="AL27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM27" s="111">
+      <c r="AM27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="110">
+      <c r="AN27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO27" s="111">
+      <c r="AO27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="110">
+      <c r="AP27" s="108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ27" s="111">
+      <c r="AQ27" s="109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AR27" s="110">
+      <c r="AR27" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AS27" s="111">
+      <c r="AS27" s="109">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="197" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="56"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="86"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="51"/>
-      <c r="K28" s="86"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="51"/>
-      <c r="M28" s="86"/>
+      <c r="M28" s="85"/>
       <c r="N28" s="51"/>
-      <c r="O28" s="86"/>
+      <c r="O28" s="85"/>
       <c r="P28" s="51"/>
-      <c r="Q28" s="86"/>
+      <c r="Q28" s="85"/>
       <c r="R28" s="51"/>
-      <c r="S28" s="86"/>
+      <c r="S28" s="85"/>
       <c r="T28" s="51"/>
-      <c r="U28" s="86"/>
+      <c r="U28" s="85"/>
       <c r="V28" s="51"/>
-      <c r="W28" s="86"/>
+      <c r="W28" s="85"/>
       <c r="X28" s="51"/>
-      <c r="Y28" s="86"/>
+      <c r="Y28" s="85"/>
       <c r="Z28" s="51"/>
-      <c r="AA28" s="86"/>
+      <c r="AA28" s="85"/>
       <c r="AB28" s="51"/>
-      <c r="AC28" s="86"/>
+      <c r="AC28" s="85"/>
       <c r="AD28" s="51"/>
-      <c r="AE28" s="86"/>
+      <c r="AE28" s="85"/>
       <c r="AF28" s="51"/>
-      <c r="AG28" s="86"/>
+      <c r="AG28" s="85"/>
       <c r="AH28" s="51"/>
-      <c r="AI28" s="86"/>
+      <c r="AI28" s="85"/>
       <c r="AJ28" s="51"/>
-      <c r="AK28" s="86"/>
+      <c r="AK28" s="85"/>
       <c r="AL28" s="51"/>
-      <c r="AM28" s="86"/>
+      <c r="AM28" s="85"/>
       <c r="AN28" s="51"/>
-      <c r="AO28" s="86"/>
+      <c r="AO28" s="85"/>
       <c r="AP28" s="51"/>
-      <c r="AQ28" s="86"/>
+      <c r="AQ28" s="85"/>
       <c r="AR28" s="17">
         <f t="shared" ref="AR28:AS31" si="11">H28+J28+L28+N28+P28+R28+T28+V28+X28+Z28+AB28+AD28+AF28+AH28+AJ28+AL28+AN28+AP28</f>
         <v>0</v>
@@ -5943,49 +5955,49 @@
       </c>
     </row>
     <row r="29" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="177"/>
+      <c r="A29" s="198"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="88"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="88"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="86"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="86"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="86"/>
+      <c r="AQ29" s="87"/>
       <c r="AR29" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -5996,49 +6008,49 @@
       </c>
     </row>
     <row r="30" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="177"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="88"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="88"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="88"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="87"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="86"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="86"/>
+      <c r="AQ30" s="87"/>
       <c r="AR30" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6049,49 +6061,49 @@
       </c>
     </row>
     <row r="31" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="177"/>
+      <c r="A31" s="198"/>
       <c r="B31" s="56"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="88"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="86"/>
+      <c r="AQ31" s="87"/>
       <c r="AR31" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -6102,49 +6114,49 @@
       </c>
     </row>
     <row r="32" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="177"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="56"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="88"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="88"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="86"/>
+      <c r="AQ32" s="87"/>
       <c r="AR32" s="37">
         <f t="shared" ref="AR32:AR38" si="12">H32+J32+L32+N32+P32+R32+T32+V32+X32+Z32+AB32+AD32+AF32+AH32+AJ32+AL32+AN32+AP32</f>
         <v>0</v>
@@ -6155,49 +6167,49 @@
       </c>
     </row>
     <row r="33" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="177"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="56"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="88"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="87"/>
+      <c r="AF33" s="86"/>
+      <c r="AG33" s="87"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
+      <c r="AJ33" s="86"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="86"/>
+      <c r="AM33" s="87"/>
+      <c r="AN33" s="86"/>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="86"/>
+      <c r="AQ33" s="87"/>
       <c r="AR33" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6208,49 +6220,49 @@
       </c>
     </row>
     <row r="34" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="177"/>
+      <c r="A34" s="198"/>
       <c r="B34" s="56"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="56"/>
       <c r="G34" s="56"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="88"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="88"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="87"/>
-      <c r="AM34" s="88"/>
-      <c r="AN34" s="87"/>
-      <c r="AO34" s="88"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="88"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="86"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="86"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="86"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="86"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="86"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="86"/>
+      <c r="AM34" s="87"/>
+      <c r="AN34" s="86"/>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="86"/>
+      <c r="AQ34" s="87"/>
       <c r="AR34" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6261,49 +6273,49 @@
       </c>
     </row>
     <row r="35" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="177"/>
+      <c r="A35" s="198"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="83"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
       <c r="G35" s="56"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="88"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="88"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="88"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="87"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="87"/>
       <c r="AR35" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6314,49 +6326,49 @@
       </c>
     </row>
     <row r="36" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="177"/>
+      <c r="A36" s="198"/>
       <c r="B36" s="56"/>
-      <c r="C36" s="83"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
       <c r="G36" s="56"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="87"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="88"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="88"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="88"/>
-      <c r="AJ36" s="87"/>
-      <c r="AK36" s="88"/>
-      <c r="AL36" s="87"/>
-      <c r="AM36" s="88"/>
-      <c r="AN36" s="87"/>
-      <c r="AO36" s="88"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="88"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="86"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="86"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="86"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="86"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="86"/>
+      <c r="AQ36" s="87"/>
       <c r="AR36" s="37">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6367,49 +6379,49 @@
       </c>
     </row>
     <row r="37" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="89"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="89"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="89"/>
-      <c r="AE37" s="90"/>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="90"/>
-      <c r="AH37" s="89"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="89"/>
-      <c r="AK37" s="90"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="90"/>
-      <c r="AN37" s="89"/>
-      <c r="AO37" s="90"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="90"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="89"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="89"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="89"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="89"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="89"/>
+      <c r="AH37" s="88"/>
+      <c r="AI37" s="89"/>
+      <c r="AJ37" s="88"/>
+      <c r="AK37" s="89"/>
+      <c r="AL37" s="88"/>
+      <c r="AM37" s="89"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="89"/>
+      <c r="AP37" s="88"/>
+      <c r="AQ37" s="89"/>
       <c r="AR37" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -6420,174 +6432,174 @@
       </c>
     </row>
     <row r="38" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="178"/>
-      <c r="B38" s="190" t="s">
+      <c r="A38" s="199"/>
+      <c r="B38" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="112">
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="110">
         <f t="shared" ref="H38:AQ38" si="14">SUM(H28:H37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="113">
+      <c r="I38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J38" s="112">
+      <c r="J38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K38" s="113">
+      <c r="K38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M38" s="113">
+      <c r="M38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N38" s="112">
+      <c r="N38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O38" s="113">
+      <c r="O38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P38" s="112">
+      <c r="P38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="113">
+      <c r="Q38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R38" s="112">
+      <c r="R38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S38" s="113">
+      <c r="S38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T38" s="112">
+      <c r="T38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U38" s="113">
+      <c r="U38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V38" s="112">
+      <c r="V38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="W38" s="113">
+      <c r="W38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X38" s="112">
+      <c r="X38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="113">
+      <c r="Y38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="112">
+      <c r="Z38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="113">
+      <c r="AA38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="112">
+      <c r="AB38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="113">
+      <c r="AC38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="112">
+      <c r="AD38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="113">
+      <c r="AE38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="112">
+      <c r="AF38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="113">
+      <c r="AG38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="112">
+      <c r="AH38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="113">
+      <c r="AI38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="112">
+      <c r="AJ38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="113">
+      <c r="AK38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="112">
+      <c r="AL38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="113">
+      <c r="AM38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="112">
+      <c r="AN38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="113">
+      <c r="AO38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AP38" s="112">
+      <c r="AP38" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="113">
+      <c r="AQ38" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AR38" s="112">
+      <c r="AR38" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS38" s="113">
+      <c r="AS38" s="111">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="187" t="s">
+      <c r="A39" s="239" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="56"/>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="81" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="56"/>
@@ -6595,1432 +6607,1432 @@
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="86"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="86"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="51"/>
-      <c r="M39" s="86"/>
+      <c r="M39" s="85"/>
       <c r="N39" s="51"/>
-      <c r="O39" s="86"/>
+      <c r="O39" s="85"/>
       <c r="P39" s="51"/>
-      <c r="Q39" s="86"/>
+      <c r="Q39" s="85"/>
       <c r="R39" s="51"/>
-      <c r="S39" s="86"/>
+      <c r="S39" s="85"/>
       <c r="T39" s="51"/>
-      <c r="U39" s="86"/>
+      <c r="U39" s="85"/>
       <c r="V39" s="51"/>
-      <c r="W39" s="86"/>
+      <c r="W39" s="85"/>
       <c r="X39" s="51"/>
-      <c r="Y39" s="86"/>
+      <c r="Y39" s="85"/>
       <c r="Z39" s="51"/>
-      <c r="AA39" s="86"/>
+      <c r="AA39" s="85"/>
       <c r="AB39" s="51"/>
-      <c r="AC39" s="86"/>
+      <c r="AC39" s="85"/>
       <c r="AD39" s="51"/>
-      <c r="AE39" s="86"/>
+      <c r="AE39" s="85"/>
       <c r="AF39" s="51"/>
-      <c r="AG39" s="86"/>
+      <c r="AG39" s="85"/>
       <c r="AH39" s="51"/>
-      <c r="AI39" s="86"/>
+      <c r="AI39" s="85"/>
       <c r="AJ39" s="51"/>
-      <c r="AK39" s="86"/>
+      <c r="AK39" s="85"/>
       <c r="AL39" s="51"/>
-      <c r="AM39" s="86"/>
+      <c r="AM39" s="85"/>
       <c r="AN39" s="51"/>
-      <c r="AO39" s="86"/>
+      <c r="AO39" s="85"/>
       <c r="AP39" s="51"/>
-      <c r="AQ39" s="86"/>
-      <c r="AR39" s="124">
+      <c r="AQ39" s="85"/>
+      <c r="AR39" s="122">
         <f t="shared" ref="AR39:AS41" si="15">H39+J39+L39+N39+P39+R39+T39+V39+X39+Z39+AB39+AD39+AF39+AH39+AJ39+AL39+AN39+AP39</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="125">
+      <c r="AS39" s="123">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
+      <c r="A40" s="240"/>
       <c r="B40" s="52"/>
-      <c r="C40" s="83"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="87"/>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="87"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="87"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="87"/>
-      <c r="AO40" s="88"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="88"/>
-      <c r="AR40" s="126">
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="87"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="87"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="87"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="87"/>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="87"/>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="86"/>
+      <c r="AO40" s="87"/>
+      <c r="AP40" s="86"/>
+      <c r="AQ40" s="87"/>
+      <c r="AR40" s="124">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS40" s="127">
+      <c r="AS40" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="188"/>
+      <c r="A41" s="240"/>
       <c r="B41" s="52"/>
-      <c r="C41" s="83"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="87"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="87"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="87"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="87"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="87"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="87"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="87"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="87"/>
-      <c r="AO41" s="88"/>
-      <c r="AP41" s="87"/>
-      <c r="AQ41" s="88"/>
-      <c r="AR41" s="126">
+      <c r="H41" s="86"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="87"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="87"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="87"/>
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="87"/>
+      <c r="AL41" s="86"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="87"/>
+      <c r="AP41" s="86"/>
+      <c r="AQ41" s="87"/>
+      <c r="AR41" s="124">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS41" s="127">
+      <c r="AS41" s="125">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="188"/>
+      <c r="A42" s="240"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="83"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="87"/>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="87"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="87"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="87"/>
-      <c r="AO42" s="88"/>
-      <c r="AP42" s="87"/>
-      <c r="AQ42" s="88"/>
-      <c r="AR42" s="126">
+      <c r="H42" s="86"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="87"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="87"/>
+      <c r="AD42" s="86"/>
+      <c r="AE42" s="87"/>
+      <c r="AF42" s="86"/>
+      <c r="AG42" s="87"/>
+      <c r="AH42" s="86"/>
+      <c r="AI42" s="87"/>
+      <c r="AJ42" s="86"/>
+      <c r="AK42" s="87"/>
+      <c r="AL42" s="86"/>
+      <c r="AM42" s="87"/>
+      <c r="AN42" s="86"/>
+      <c r="AO42" s="87"/>
+      <c r="AP42" s="86"/>
+      <c r="AQ42" s="87"/>
+      <c r="AR42" s="124">
         <f t="shared" ref="AR42:AR48" si="16">H42+J42+L42+N42+P42+R42+T42+V42+X42+Z42+AB42+AD42+AF42+AH42+AJ42+AL42+AN42+AP42</f>
         <v>0</v>
       </c>
-      <c r="AS42" s="127">
+      <c r="AS42" s="125">
         <f t="shared" ref="AS42:AS48" si="17">I42+K42+M42+O42+Q42+S42+U42+W42+Y42+AA42+AC42+AE42+AG42+AI42+AK42+AM42+AO42+AQ42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="188"/>
+      <c r="A43" s="240"/>
       <c r="B43" s="52"/>
-      <c r="C43" s="83"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="52"/>
       <c r="E43" s="52"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="87"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="87"/>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="87"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="87"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="88"/>
-      <c r="AP43" s="87"/>
-      <c r="AQ43" s="88"/>
-      <c r="AR43" s="126">
+      <c r="H43" s="86"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="86"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="86"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="86"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="86"/>
+      <c r="AI43" s="87"/>
+      <c r="AJ43" s="86"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="86"/>
+      <c r="AM43" s="87"/>
+      <c r="AN43" s="86"/>
+      <c r="AO43" s="87"/>
+      <c r="AP43" s="86"/>
+      <c r="AQ43" s="87"/>
+      <c r="AR43" s="124">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS43" s="127">
+      <c r="AS43" s="125">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="188"/>
+      <c r="A44" s="240"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="83"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="52"/>
       <c r="E44" s="52"/>
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="87"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="87"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="87"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="87"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="87"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="87"/>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="87"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="87"/>
-      <c r="AM44" s="88"/>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="88"/>
-      <c r="AP44" s="87"/>
-      <c r="AQ44" s="88"/>
-      <c r="AR44" s="126">
+      <c r="H44" s="86"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="86"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="86"/>
+      <c r="AG44" s="87"/>
+      <c r="AH44" s="86"/>
+      <c r="AI44" s="87"/>
+      <c r="AJ44" s="86"/>
+      <c r="AK44" s="87"/>
+      <c r="AL44" s="86"/>
+      <c r="AM44" s="87"/>
+      <c r="AN44" s="86"/>
+      <c r="AO44" s="87"/>
+      <c r="AP44" s="86"/>
+      <c r="AQ44" s="87"/>
+      <c r="AR44" s="124">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS44" s="127">
+      <c r="AS44" s="125">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="188"/>
+      <c r="A45" s="240"/>
       <c r="B45" s="52"/>
-      <c r="C45" s="83"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="52"/>
       <c r="E45" s="52"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="87"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="87"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="87"/>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="87"/>
-      <c r="AO45" s="88"/>
-      <c r="AP45" s="87"/>
-      <c r="AQ45" s="88"/>
-      <c r="AR45" s="126">
+      <c r="H45" s="86"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="86"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="87"/>
+      <c r="AD45" s="86"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="86"/>
+      <c r="AG45" s="87"/>
+      <c r="AH45" s="86"/>
+      <c r="AI45" s="87"/>
+      <c r="AJ45" s="86"/>
+      <c r="AK45" s="87"/>
+      <c r="AL45" s="86"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="86"/>
+      <c r="AO45" s="87"/>
+      <c r="AP45" s="86"/>
+      <c r="AQ45" s="87"/>
+      <c r="AR45" s="124">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS45" s="127">
+      <c r="AS45" s="125">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="188"/>
+      <c r="A46" s="240"/>
       <c r="B46" s="52"/>
-      <c r="C46" s="83"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="52"/>
       <c r="E46" s="52"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="87"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="87"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="87"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="87"/>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="87"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="87"/>
-      <c r="AM46" s="88"/>
-      <c r="AN46" s="87"/>
-      <c r="AO46" s="88"/>
-      <c r="AP46" s="87"/>
-      <c r="AQ46" s="88"/>
-      <c r="AR46" s="126">
+      <c r="H46" s="86"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="87"/>
+      <c r="AD46" s="86"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="86"/>
+      <c r="AG46" s="87"/>
+      <c r="AH46" s="86"/>
+      <c r="AI46" s="87"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="87"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="87"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="87"/>
+      <c r="AP46" s="86"/>
+      <c r="AQ46" s="87"/>
+      <c r="AR46" s="124">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS46" s="127">
+      <c r="AS46" s="125">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="188"/>
+      <c r="A47" s="240"/>
       <c r="B47" s="52"/>
-      <c r="C47" s="83"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="52"/>
       <c r="E47" s="52"/>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="87"/>
-      <c r="AO47" s="88"/>
-      <c r="AP47" s="87"/>
-      <c r="AQ47" s="88"/>
-      <c r="AR47" s="126">
+      <c r="H47" s="86"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="86"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="86"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="86"/>
+      <c r="AC47" s="87"/>
+      <c r="AD47" s="86"/>
+      <c r="AE47" s="87"/>
+      <c r="AF47" s="86"/>
+      <c r="AG47" s="87"/>
+      <c r="AH47" s="86"/>
+      <c r="AI47" s="87"/>
+      <c r="AJ47" s="86"/>
+      <c r="AK47" s="87"/>
+      <c r="AL47" s="86"/>
+      <c r="AM47" s="87"/>
+      <c r="AN47" s="86"/>
+      <c r="AO47" s="87"/>
+      <c r="AP47" s="86"/>
+      <c r="AQ47" s="87"/>
+      <c r="AR47" s="124">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS47" s="127">
+      <c r="AS47" s="125">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="188"/>
+      <c r="A48" s="240"/>
       <c r="B48" s="54"/>
-      <c r="C48" s="84"/>
+      <c r="C48" s="83"/>
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="89"/>
-      <c r="Q48" s="90"/>
-      <c r="R48" s="89"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="89"/>
-      <c r="U48" s="90"/>
-      <c r="V48" s="89"/>
-      <c r="W48" s="90"/>
-      <c r="X48" s="89"/>
-      <c r="Y48" s="90"/>
-      <c r="Z48" s="89"/>
-      <c r="AA48" s="90"/>
-      <c r="AB48" s="89"/>
-      <c r="AC48" s="90"/>
-      <c r="AD48" s="89"/>
-      <c r="AE48" s="90"/>
-      <c r="AF48" s="89"/>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="89"/>
-      <c r="AI48" s="90"/>
-      <c r="AJ48" s="89"/>
-      <c r="AK48" s="90"/>
-      <c r="AL48" s="89"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="89"/>
-      <c r="AO48" s="90"/>
-      <c r="AP48" s="89"/>
-      <c r="AQ48" s="90"/>
-      <c r="AR48" s="128">
+      <c r="H48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="89"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="89"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="89"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="89"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="89"/>
+      <c r="AH48" s="88"/>
+      <c r="AI48" s="89"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="89"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="89"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="89"/>
+      <c r="AP48" s="88"/>
+      <c r="AQ48" s="89"/>
+      <c r="AR48" s="126">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS48" s="129">
+      <c r="AS48" s="127">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="189"/>
-      <c r="B49" s="190" t="s">
+      <c r="A49" s="241"/>
+      <c r="B49" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="192"/>
-      <c r="H49" s="112">
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
+      <c r="F49" s="201"/>
+      <c r="G49" s="202"/>
+      <c r="H49" s="110">
         <f t="shared" ref="H49:AQ49" si="18">SUM(H39:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="113">
+      <c r="I49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J49" s="112">
+      <c r="J49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K49" s="113">
+      <c r="K49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L49" s="112">
+      <c r="L49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M49" s="113">
+      <c r="M49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N49" s="112">
+      <c r="N49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O49" s="113">
+      <c r="O49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P49" s="112">
+      <c r="P49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="113">
+      <c r="Q49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R49" s="112">
+      <c r="R49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S49" s="113">
+      <c r="S49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T49" s="112">
+      <c r="T49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U49" s="113">
+      <c r="U49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V49" s="112">
+      <c r="V49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W49" s="113">
+      <c r="W49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X49" s="112">
+      <c r="X49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="113">
+      <c r="Y49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="112">
+      <c r="Z49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="113">
+      <c r="AA49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="112">
+      <c r="AB49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="113">
+      <c r="AC49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="112">
+      <c r="AD49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="113">
+      <c r="AE49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF49" s="112">
+      <c r="AF49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG49" s="113">
+      <c r="AG49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AH49" s="112">
+      <c r="AH49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="113">
+      <c r="AI49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AJ49" s="112">
+      <c r="AJ49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AK49" s="113">
+      <c r="AK49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AL49" s="112">
+      <c r="AL49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM49" s="113">
+      <c r="AM49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AN49" s="112">
+      <c r="AN49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO49" s="113">
+      <c r="AO49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP49" s="112">
+      <c r="AP49" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ49" s="113">
+      <c r="AQ49" s="111">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AR49" s="112">
+      <c r="AR49" s="110">
         <f>H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49+AF49+AH49+AJ49+AL49+AN49+AP49</f>
         <v>0</v>
       </c>
-      <c r="AS49" s="113">
+      <c r="AS49" s="111">
         <f>I49+K49+M49+O49+Q49+S49+U49+W49+Y49+AA49+AC49+AE49+AG49+AI49+AK49+AM49+AO49+AQ49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="179" t="s">
+    <row r="50" spans="1:47" s="119" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="180"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="110">
+      <c r="B50" s="232"/>
+      <c r="C50" s="232"/>
+      <c r="D50" s="232"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="108">
         <f t="shared" ref="H50:AQ50" si="19">H38+H49</f>
         <v>0</v>
       </c>
-      <c r="I50" s="111">
+      <c r="I50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J50" s="110">
+      <c r="J50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K50" s="111">
+      <c r="K50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L50" s="110">
+      <c r="L50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M50" s="111">
+      <c r="M50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N50" s="110">
+      <c r="N50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O50" s="111">
+      <c r="O50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P50" s="110">
+      <c r="P50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="111">
+      <c r="Q50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R50" s="110">
+      <c r="R50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S50" s="111">
+      <c r="S50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T50" s="110">
+      <c r="T50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U50" s="111">
+      <c r="U50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V50" s="110">
+      <c r="V50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W50" s="111">
+      <c r="W50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X50" s="110">
+      <c r="X50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="111">
+      <c r="Y50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="110">
+      <c r="Z50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="111">
+      <c r="AA50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="110">
+      <c r="AB50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="111">
+      <c r="AC50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="110">
+      <c r="AD50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="111">
+      <c r="AE50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="110">
+      <c r="AF50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AG50" s="111">
+      <c r="AG50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AH50" s="110">
+      <c r="AH50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AI50" s="111">
+      <c r="AI50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AJ50" s="110">
+      <c r="AJ50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="111">
+      <c r="AK50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="110">
+      <c r="AL50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AM50" s="111">
+      <c r="AM50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="110">
+      <c r="AN50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AO50" s="111">
+      <c r="AO50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AP50" s="110">
+      <c r="AP50" s="108">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ50" s="111">
+      <c r="AQ50" s="109">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AR50" s="110">
+      <c r="AR50" s="108">
         <f>H50+J50+L50+N50+P50+R50+T50+V50+X50+Z50+AB50+AD50+AF50+AH50+AJ50+AL50+AN50+AP50</f>
         <v>0</v>
       </c>
-      <c r="AS50" s="111">
+      <c r="AS50" s="109">
         <f>I50+K50+M50+O50+Q50+S50+U50+W50+Y50+AA50+AC50+AE50+AG50+AI50+AK50+AM50+AO50+AQ50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:47" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="182"/>
-      <c r="B51" s="182"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="182"/>
-      <c r="E51" s="182"/>
-      <c r="F51" s="182"/>
-      <c r="G51" s="182"/>
-      <c r="H51" s="182"/>
-      <c r="I51" s="182"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="182"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="182"/>
-      <c r="O51" s="182"/>
-      <c r="P51" s="182"/>
-      <c r="Q51" s="182"/>
-      <c r="R51" s="182"/>
-      <c r="S51" s="182"/>
-      <c r="T51" s="193"/>
-      <c r="U51" s="194"/>
-      <c r="V51" s="194"/>
-      <c r="W51" s="194"/>
-      <c r="X51" s="194"/>
-      <c r="Y51" s="194"/>
-      <c r="Z51" s="194"/>
-      <c r="AA51" s="194"/>
-      <c r="AB51" s="194"/>
-      <c r="AC51" s="194"/>
-      <c r="AD51" s="194"/>
-      <c r="AE51" s="194"/>
-      <c r="AF51" s="194"/>
-      <c r="AG51" s="194"/>
-      <c r="AH51" s="194"/>
-      <c r="AI51" s="194"/>
-      <c r="AJ51" s="194"/>
-      <c r="AK51" s="194"/>
-      <c r="AL51" s="194"/>
-      <c r="AM51" s="194"/>
-      <c r="AN51" s="194"/>
-      <c r="AO51" s="194"/>
-      <c r="AP51" s="194"/>
-      <c r="AQ51" s="194"/>
-      <c r="AR51" s="194"/>
-      <c r="AS51" s="194"/>
+      <c r="A51" s="234"/>
+      <c r="B51" s="234"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="234"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="234"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="234"/>
+      <c r="P51" s="234"/>
+      <c r="Q51" s="234"/>
+      <c r="R51" s="234"/>
+      <c r="S51" s="234"/>
+      <c r="T51" s="210"/>
+      <c r="U51" s="211"/>
+      <c r="V51" s="211"/>
+      <c r="W51" s="211"/>
+      <c r="X51" s="211"/>
+      <c r="Y51" s="211"/>
+      <c r="Z51" s="211"/>
+      <c r="AA51" s="211"/>
+      <c r="AB51" s="211"/>
+      <c r="AC51" s="211"/>
+      <c r="AD51" s="211"/>
+      <c r="AE51" s="211"/>
+      <c r="AF51" s="211"/>
+      <c r="AG51" s="211"/>
+      <c r="AH51" s="211"/>
+      <c r="AI51" s="211"/>
+      <c r="AJ51" s="211"/>
+      <c r="AK51" s="211"/>
+      <c r="AL51" s="211"/>
+      <c r="AM51" s="211"/>
+      <c r="AN51" s="211"/>
+      <c r="AO51" s="211"/>
+      <c r="AP51" s="211"/>
+      <c r="AQ51" s="211"/>
+      <c r="AR51" s="211"/>
+      <c r="AS51" s="211"/>
     </row>
     <row r="52" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="184" t="s">
+      <c r="A52" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="185"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="114">
+      <c r="B52" s="237"/>
+      <c r="C52" s="237"/>
+      <c r="D52" s="237"/>
+      <c r="E52" s="237"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="112">
         <f t="shared" ref="H52:AQ52" si="20">H15+H38</f>
         <v>0</v>
       </c>
-      <c r="I52" s="115">
+      <c r="I52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J52" s="114">
+      <c r="J52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K52" s="115">
+      <c r="K52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L52" s="114">
+      <c r="L52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M52" s="115">
+      <c r="M52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N52" s="114">
+      <c r="N52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O52" s="115">
+      <c r="O52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P52" s="114">
+      <c r="P52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="115">
+      <c r="Q52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R52" s="114">
+      <c r="R52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S52" s="115">
+      <c r="S52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T52" s="114">
+      <c r="T52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U52" s="115">
+      <c r="U52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V52" s="114">
+      <c r="V52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W52" s="115">
+      <c r="W52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X52" s="114">
+      <c r="X52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="115">
+      <c r="Y52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="114">
+      <c r="Z52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="115">
+      <c r="AA52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="114">
+      <c r="AB52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="115">
+      <c r="AC52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="114">
+      <c r="AD52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="115">
+      <c r="AE52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF52" s="114">
+      <c r="AF52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AG52" s="115">
+      <c r="AG52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AH52" s="114">
+      <c r="AH52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="115">
+      <c r="AI52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AJ52" s="114">
+      <c r="AJ52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AK52" s="115">
+      <c r="AK52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="114">
+      <c r="AL52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AM52" s="115">
+      <c r="AM52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AN52" s="114">
+      <c r="AN52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AO52" s="115">
+      <c r="AO52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AP52" s="114">
+      <c r="AP52" s="112">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AQ52" s="115">
+      <c r="AQ52" s="113">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AR52" s="116">
+      <c r="AR52" s="114">
         <f>H52+J52+L52+N52+P52+R52+T52+V52+X52+Z52+AB52+AD52+AF52+AH52+AJ52+AL52+AN52+AP52</f>
         <v>0</v>
       </c>
-      <c r="AS52" s="117">
+      <c r="AS52" s="115">
         <f>I52+K52+M52+O52+Q52+S52+U52+W52+Y52+AA52+AC52+AE52+AG52+AI52+AK52+AM52+AO52+AQ52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="184" t="s">
+      <c r="A53" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="185"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="186"/>
-      <c r="H53" s="118">
+      <c r="B53" s="237"/>
+      <c r="C53" s="237"/>
+      <c r="D53" s="237"/>
+      <c r="E53" s="237"/>
+      <c r="F53" s="237"/>
+      <c r="G53" s="238"/>
+      <c r="H53" s="116">
         <f t="shared" ref="H53:AQ53" si="21">H26+H49</f>
         <v>0</v>
       </c>
-      <c r="I53" s="119">
+      <c r="I53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J53" s="118">
+      <c r="J53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K53" s="119">
+      <c r="K53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L53" s="118">
+      <c r="L53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M53" s="119">
+      <c r="M53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N53" s="118">
+      <c r="N53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O53" s="119">
+      <c r="O53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P53" s="118">
+      <c r="P53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="119">
+      <c r="Q53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R53" s="118">
+      <c r="R53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="S53" s="119">
+      <c r="S53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T53" s="118">
+      <c r="T53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U53" s="119">
+      <c r="U53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V53" s="118">
+      <c r="V53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W53" s="119">
+      <c r="W53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X53" s="118">
+      <c r="X53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="119">
+      <c r="Y53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="118">
+      <c r="Z53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="119">
+      <c r="AA53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="118">
+      <c r="AB53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="119">
+      <c r="AC53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="118">
+      <c r="AD53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="119">
+      <c r="AE53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="118">
+      <c r="AF53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG53" s="119">
+      <c r="AG53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="118">
+      <c r="AH53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AI53" s="119">
+      <c r="AI53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AJ53" s="118">
+      <c r="AJ53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="119">
+      <c r="AK53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AL53" s="118">
+      <c r="AL53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AM53" s="119">
+      <c r="AM53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AN53" s="118">
+      <c r="AN53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AO53" s="119">
+      <c r="AO53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AP53" s="118">
+      <c r="AP53" s="116">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AQ53" s="119">
+      <c r="AQ53" s="117">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AR53" s="116">
+      <c r="AR53" s="114">
         <f>H53+J53+L53+N53+P53+R53+T53+V53+X53+Z53+AB53+AD53+AF53+AH53+AJ53+AL53+AN53+AP53</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="117">
+      <c r="AS53" s="115">
         <f>I53+K53+M53+O53+Q53+S53+U53+W53+Y53+AA53+AC53+AE53+AG53+AI53+AK53+AM53+AO53+AQ53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:47" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
-      <c r="B54" s="183"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="183"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="183"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="183"/>
-      <c r="P54" s="183"/>
-      <c r="Q54" s="183"/>
-      <c r="R54" s="183"/>
-      <c r="S54" s="183"/>
-      <c r="T54" s="193"/>
-      <c r="U54" s="194"/>
-      <c r="V54" s="194"/>
-      <c r="W54" s="194"/>
-      <c r="X54" s="194"/>
-      <c r="Y54" s="194"/>
-      <c r="Z54" s="194"/>
-      <c r="AA54" s="194"/>
-      <c r="AB54" s="194"/>
-      <c r="AC54" s="194"/>
-      <c r="AD54" s="194"/>
-      <c r="AE54" s="194"/>
-      <c r="AF54" s="194"/>
-      <c r="AG54" s="194"/>
-      <c r="AH54" s="194"/>
-      <c r="AI54" s="194"/>
-      <c r="AJ54" s="194"/>
-      <c r="AK54" s="194"/>
-      <c r="AL54" s="194"/>
-      <c r="AM54" s="194"/>
-      <c r="AN54" s="194"/>
-      <c r="AO54" s="194"/>
-      <c r="AP54" s="194"/>
-      <c r="AQ54" s="194"/>
-      <c r="AR54" s="194"/>
-      <c r="AS54" s="194"/>
-    </row>
-    <row r="55" spans="1:47" s="121" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="179" t="s">
+      <c r="A54" s="235"/>
+      <c r="B54" s="235"/>
+      <c r="C54" s="235"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="235"/>
+      <c r="G54" s="235"/>
+      <c r="H54" s="235"/>
+      <c r="I54" s="235"/>
+      <c r="J54" s="235"/>
+      <c r="K54" s="235"/>
+      <c r="L54" s="235"/>
+      <c r="M54" s="235"/>
+      <c r="N54" s="235"/>
+      <c r="O54" s="235"/>
+      <c r="P54" s="235"/>
+      <c r="Q54" s="235"/>
+      <c r="R54" s="235"/>
+      <c r="S54" s="235"/>
+      <c r="T54" s="210"/>
+      <c r="U54" s="211"/>
+      <c r="V54" s="211"/>
+      <c r="W54" s="211"/>
+      <c r="X54" s="211"/>
+      <c r="Y54" s="211"/>
+      <c r="Z54" s="211"/>
+      <c r="AA54" s="211"/>
+      <c r="AB54" s="211"/>
+      <c r="AC54" s="211"/>
+      <c r="AD54" s="211"/>
+      <c r="AE54" s="211"/>
+      <c r="AF54" s="211"/>
+      <c r="AG54" s="211"/>
+      <c r="AH54" s="211"/>
+      <c r="AI54" s="211"/>
+      <c r="AJ54" s="211"/>
+      <c r="AK54" s="211"/>
+      <c r="AL54" s="211"/>
+      <c r="AM54" s="211"/>
+      <c r="AN54" s="211"/>
+      <c r="AO54" s="211"/>
+      <c r="AP54" s="211"/>
+      <c r="AQ54" s="211"/>
+      <c r="AR54" s="211"/>
+      <c r="AS54" s="211"/>
+    </row>
+    <row r="55" spans="1:47" s="119" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="180"/>
-      <c r="C55" s="180"/>
-      <c r="D55" s="180"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="181"/>
-      <c r="H55" s="110">
+      <c r="B55" s="232"/>
+      <c r="C55" s="232"/>
+      <c r="D55" s="232"/>
+      <c r="E55" s="232"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="233"/>
+      <c r="H55" s="108">
         <f t="shared" ref="H55:AQ55" si="22">H52+H53</f>
         <v>0</v>
       </c>
-      <c r="I55" s="111">
+      <c r="I55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J55" s="110">
+      <c r="J55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K55" s="111">
+      <c r="K55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L55" s="110">
+      <c r="L55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M55" s="111">
+      <c r="M55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N55" s="110">
+      <c r="N55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O55" s="111">
+      <c r="O55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P55" s="110">
+      <c r="P55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="111">
+      <c r="Q55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R55" s="110">
+      <c r="R55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S55" s="111">
+      <c r="S55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T55" s="110">
+      <c r="T55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U55" s="111">
+      <c r="U55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V55" s="110">
+      <c r="V55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="W55" s="111">
+      <c r="W55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X55" s="110">
+      <c r="X55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y55" s="111">
+      <c r="Y55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="110">
+      <c r="Z55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="111">
+      <c r="AA55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB55" s="110">
+      <c r="AB55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC55" s="111">
+      <c r="AC55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD55" s="110">
+      <c r="AD55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="111">
+      <c r="AE55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF55" s="110">
+      <c r="AF55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AG55" s="111">
+      <c r="AG55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH55" s="110">
+      <c r="AH55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI55" s="111">
+      <c r="AI55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AJ55" s="110">
+      <c r="AJ55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK55" s="111">
+      <c r="AK55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="110">
+      <c r="AL55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM55" s="111">
+      <c r="AM55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN55" s="110">
+      <c r="AN55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AO55" s="111">
+      <c r="AO55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AP55" s="110">
+      <c r="AP55" s="108">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AQ55" s="111">
+      <c r="AQ55" s="109">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AR55" s="110">
+      <c r="AR55" s="108">
         <f>H55+J55+L55+N55+P55+R55+T55+V55+X55+Z55+AB55+AD55+AF55+AH55+AJ55+AL55+AN55+AP55</f>
         <v>0</v>
       </c>
-      <c r="AS55" s="111">
+      <c r="AS55" s="109">
         <f>I55+K55+M55+O55+Q55+S55+U55+W55+Y55+AA55+AC55+AE55+AG55+AI55+AK55+AM55+AO55+AQ55</f>
         <v>0</v>
       </c>
@@ -8068,79 +8080,79 @@
       <c r="AO56" s="6"/>
       <c r="AP56" s="6"/>
     </row>
-    <row r="57" spans="1:47" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="97" t="str">
+    <row r="57" spans="1:47" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="96" t="str">
         <f>CONCATENATE("Затвердженона  засіданні  кафедри ",РОЗПОДІЛ!C25)</f>
         <v>Затвердженона  засіданні  кафедри  "25" _серпня__ 2016_ р.  Протокол № _1_</v>
       </c>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="97"/>
-      <c r="P57" s="97"/>
-      <c r="Q57" s="97"/>
-      <c r="R57" s="97"/>
-      <c r="T57" s="97"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97" t="e">
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
+      <c r="X57" s="96" t="e">
         <f>CONCATENATE("Завідувач кафедри _______________________________  / ",AU57," /")</f>
         <v>#REF!</v>
       </c>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
-      <c r="AA57" s="97"/>
-      <c r="AB57" s="97"/>
-      <c r="AC57" s="97"/>
-      <c r="AD57" s="97"/>
-      <c r="AE57" s="97"/>
-      <c r="AF57" s="97"/>
-      <c r="AG57" s="97"/>
-      <c r="AH57" s="97"/>
-      <c r="AI57" s="97"/>
-      <c r="AJ57" s="97"/>
-      <c r="AK57" s="97"/>
-      <c r="AL57" s="97"/>
-      <c r="AM57" s="97"/>
-      <c r="AN57" s="97"/>
-      <c r="AO57" s="97"/>
-      <c r="AP57" s="97"/>
-      <c r="AU57" s="98" t="e">
+      <c r="Y57" s="96"/>
+      <c r="Z57" s="96"/>
+      <c r="AA57" s="96"/>
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="96"/>
+      <c r="AD57" s="96"/>
+      <c r="AE57" s="96"/>
+      <c r="AF57" s="96"/>
+      <c r="AG57" s="96"/>
+      <c r="AH57" s="96"/>
+      <c r="AI57" s="96"/>
+      <c r="AJ57" s="96"/>
+      <c r="AK57" s="96"/>
+      <c r="AL57" s="96"/>
+      <c r="AM57" s="96"/>
+      <c r="AN57" s="96"/>
+      <c r="AO57" s="96"/>
+      <c r="AP57" s="96"/>
+      <c r="AU57" s="97" t="e">
         <f>VLOOKUP(ТИТУЛ!B12,#REF!,2,FALSE)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:47" s="98" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y58" s="195"/>
-      <c r="Z58" s="196"/>
-      <c r="AA58" s="196"/>
-      <c r="AE58" s="197"/>
-      <c r="AF58" s="197"/>
-      <c r="AG58" s="197"/>
-      <c r="AH58" s="197"/>
-      <c r="AI58" s="197"/>
-    </row>
-    <row r="59" spans="1:47" s="98" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="97" t="str">
+    <row r="58" spans="1:47" s="97" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="212"/>
+      <c r="Z58" s="213"/>
+      <c r="AA58" s="213"/>
+      <c r="AE58" s="214"/>
+      <c r="AF58" s="214"/>
+      <c r="AG58" s="214"/>
+      <c r="AH58" s="214"/>
+      <c r="AI58" s="214"/>
+    </row>
+    <row r="59" spans="1:47" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="96" t="str">
         <f>CONCATENATE("Викладач  _______________________________ / ",ТИТУЛ!A24," /")</f>
         <v>Викладач  _______________________________ /  /</v>
       </c>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="X59" s="97" t="e">
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="X59" s="96" t="e">
         <f>CONCATENATE("Декан факультету  _______________________________  / ",AU59," /")</f>
         <v>#REF!</v>
       </c>
-      <c r="AU59" s="98" t="e">
+      <c r="AU59" s="97" t="e">
         <f>VLOOKUP(ТИТУЛ!B9,#REF!,3,FALSE)</f>
         <v>#REF!</v>
       </c>
@@ -8154,25 +8166,17 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A54:S54"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="T51:AS51"/>
     <mergeCell ref="T54:AS54"/>
     <mergeCell ref="Y58:AA58"/>
@@ -8189,17 +8193,25 @@
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A54:S54"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="T2:U3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="AR5:AS14">
@@ -8525,8 +8537,8 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8541,12 +8553,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
     </row>
     <row r="2" spans="1:9" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
@@ -8572,122 +8584,142 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="49">
+        <v>1</v>
+      </c>
+      <c r="B3" s="134"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="133"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="49">
+        <v>3</v>
+      </c>
+      <c r="B5" s="133"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52">
+        <v>4</v>
+      </c>
+      <c r="B6" s="133"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="83"/>
+      <c r="A7" s="49">
+        <v>5</v>
+      </c>
+      <c r="B7" s="133"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="83"/>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
+        <v>6</v>
+      </c>
+      <c r="B8" s="133"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="49">
+        <v>7</v>
+      </c>
+      <c r="B9" s="133"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="83"/>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52">
+        <v>8</v>
+      </c>
+      <c r="B10" s="133"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="49">
+        <v>9</v>
+      </c>
+      <c r="B11" s="133"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="52">
+        <v>10</v>
+      </c>
+      <c r="B12" s="135"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="243" t="s">
+      <c r="A13" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="244"/>
-      <c r="C13" s="244"/>
-      <c r="D13" s="245"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="47">
         <f>SUM(E3:E12)</f>
         <v>0</v>
@@ -8701,26 +8733,26 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="246" t="e">
+      <c r="A14" s="249" t="e">
         <f>CONCATENATE("Викладач ______________      Завідувач кафедри  ____________       / ",'НАВЧАЛЬНА РОБОТА'!AU57," /")</f>
         <v>#REF!</v>
       </c>
-      <c r="B14" s="247"/>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="248"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="250"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="251"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
     </row>
     <row r="16" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
@@ -8743,92 +8775,112 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="49">
+        <v>1</v>
+      </c>
+      <c r="B17" s="134"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="83"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52">
+        <v>2</v>
+      </c>
+      <c r="B18" s="133"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
     </row>
     <row r="19" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="49">
+        <v>3</v>
+      </c>
+      <c r="B19" s="133"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="83"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52">
+        <v>4</v>
+      </c>
+      <c r="B20" s="133"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="49">
+        <v>5</v>
+      </c>
+      <c r="B21" s="133"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="83"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52">
+        <v>6</v>
+      </c>
+      <c r="B22" s="133"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="49">
+        <v>7</v>
+      </c>
+      <c r="B23" s="133"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="83"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52">
+        <v>8</v>
+      </c>
+      <c r="B24" s="133"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="49">
+        <v>9</v>
+      </c>
+      <c r="B25" s="133"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="52">
+        <v>10</v>
+      </c>
+      <c r="B26" s="133"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="243" t="s">
+      <c r="A27" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="244"/>
-      <c r="C27" s="244"/>
-      <c r="D27" s="245"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="47">
         <f>SUM(E17:E26)</f>
         <v>0</v>
@@ -8839,23 +8891,23 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="240" t="e">
+      <c r="A28" s="243" t="e">
         <f>A14</f>
         <v>#REF!</v>
       </c>
-      <c r="B28" s="241"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="242"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="245"/>
     </row>
     <row r="29" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="239"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
     </row>
     <row r="30" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
@@ -8878,92 +8930,112 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="49">
+        <v>1</v>
+      </c>
+      <c r="B31" s="134"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="134"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="52">
+        <v>2</v>
+      </c>
+      <c r="B32" s="132"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
     </row>
     <row r="33" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="134"/>
+      <c r="A33" s="49">
+        <v>3</v>
+      </c>
+      <c r="B33" s="132"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="101"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="52">
+        <v>4</v>
+      </c>
+      <c r="B34" s="132"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="49">
+        <v>5</v>
+      </c>
+      <c r="B35" s="133"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-    </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="83"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52">
+        <v>6</v>
+      </c>
+      <c r="B36" s="133"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="49">
+        <v>7</v>
+      </c>
+      <c r="B37" s="133"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="83"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+    </row>
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52">
+        <v>8</v>
+      </c>
+      <c r="B38" s="133"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="83"/>
+      <c r="A39" s="49">
+        <v>9</v>
+      </c>
+      <c r="B39" s="133"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-      <c r="B40" s="83"/>
+      <c r="A40" s="52">
+        <v>10</v>
+      </c>
+      <c r="B40" s="133"/>
       <c r="C40" s="52"/>
       <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="243" t="s">
+      <c r="A41" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="244"/>
-      <c r="C41" s="244"/>
-      <c r="D41" s="245"/>
+      <c r="B41" s="247"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="248"/>
       <c r="E41" s="47">
         <f>SUM(E31:E40)</f>
         <v>0</v>
@@ -8974,15 +9046,15 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="240" t="e">
+      <c r="A42" s="243" t="e">
         <f>A28</f>
         <v>#REF!</v>
       </c>
-      <c r="B42" s="241"/>
-      <c r="C42" s="241"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="242"/>
+      <c r="B42" s="244"/>
+      <c r="C42" s="244"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="244"/>
+      <c r="F42" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9027,7 +9099,7 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9046,14 +9118,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
       <c r="G1" s="23"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9088,268 +9160,273 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="253" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="251"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="253"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
     </row>
     <row r="12" spans="1:11" ht="51" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="252" t="s">
+      <c r="B12" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
       <c r="G12" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="253" t="str">
+      <c r="B13" s="255" t="str">
         <f>CONCATENATE("Звіт про виконання індивідуального плану за ",ТИТУЛ!A34," навчальний рік викладача ",ТИТУЛ!A24," розглянуто ___  _____________ 20__ р. на засіданні кафедри ",ТИТУЛ!B12," й ухвалено рішення (протокол №______): Індивідуальний план виконано в обсязі ",РОЗПОДІЛ!E19," годин.")</f>
         <v>Звіт про виконання індивідуального плану за  навчальний рік викладача  розглянуто ___  _____________ 20__ р. на засіданні кафедри  й ухвалено рішення (протокол №______): Індивідуальний план виконано в обсязі 0 годин.</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="61"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="256" t="s">
+      <c r="B14" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="257"/>
-      <c r="D14" s="257"/>
-      <c r="E14" s="257"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="64"/>
     </row>
     <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="249"/>
-      <c r="D15" s="249"/>
-      <c r="E15" s="249"/>
-      <c r="F15" s="249"/>
-      <c r="G15" s="65"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="252"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="249"/>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="249"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="69"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="251" t="s">
+      <c r="A20" s="253" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="251"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
+      <c r="B20" s="253"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
     </row>
     <row r="21" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="252" t="s">
+      <c r="B21" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="252"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="252"/>
-      <c r="F21" s="252"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
       <c r="G21" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
-      <c r="B22" s="259"/>
-      <c r="C22" s="259"/>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="61"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="262"/>
+      <c r="D22" s="262"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="249"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="65"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="64"/>
     </row>
     <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="249"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="65"/>
+      <c r="B24" s="252"/>
+      <c r="C24" s="252"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="64"/>
     </row>
     <row r="25" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="65"/>
+      <c r="B25" s="252"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="249"/>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="249"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="252"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="252"/>
+      <c r="F26" s="252"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="249"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="65"/>
+      <c r="B27" s="252"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55"/>
-      <c r="B28" s="250"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="69"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A1:F1"/>
@@ -9363,11 +9440,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
